--- a/content/post/data/likan_af_ibudarverdi_data.xlsx
+++ b/content/post/data/likan_af_ibudarverdi_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidar\Documents\Rwd\husnaedi_fc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidar\Documents\Rwd\blog\content\post\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEDC37F-D682-4BC7-A57D-74F087BF26F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD950A7-0ABD-4346-9E21-D00F0FD61EE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   <externalReferences>
     <externalReference r:id="rId8"/>
   </externalReferences>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>date</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>utborgad</t>
+  </si>
+  <si>
+    <t>avg_hlutfall</t>
   </si>
 </sst>
 </file>
@@ -2419,21 +2422,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636BF21A-27FC-4C63-8634-6250E47819F6}">
-  <dimension ref="A1:G310"/>
+  <dimension ref="A1:H310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="E310" sqref="E309:E310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="68"/>
-    <col min="2" max="5" width="16" style="69" customWidth="1"/>
-    <col min="6" max="6" width="20" style="69" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="68"/>
+    <col min="2" max="6" width="16" style="69" customWidth="1"/>
+    <col min="7" max="7" width="20" style="69" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
@@ -2447,16 +2450,19 @@
         <v>66</v>
       </c>
       <c r="E1" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="G1" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="H1" s="68" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="70">
         <v>34335</v>
       </c>
@@ -2467,13 +2473,16 @@
         <v>0.65</v>
       </c>
       <c r="E2" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F2" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G2" s="68">
+      <c r="H2" s="68">
         <v>81265.159166666606</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="70">
         <v>34366</v>
       </c>
@@ -2484,13 +2493,16 @@
         <v>0.65</v>
       </c>
       <c r="E3" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F3" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G3" s="68">
+      <c r="H3" s="68">
         <v>81522.397916666596</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="70">
         <v>34394</v>
       </c>
@@ -2501,13 +2513,16 @@
         <v>0.65</v>
       </c>
       <c r="E4" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F4" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G4" s="68">
+      <c r="H4" s="68">
         <v>77835.309166666601</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="70">
         <v>34425</v>
       </c>
@@ -2518,13 +2533,16 @@
         <v>0.65</v>
       </c>
       <c r="E5" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F5" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G5" s="68">
+      <c r="H5" s="68">
         <v>82236.95</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="70">
         <v>34455</v>
       </c>
@@ -2535,13 +2553,16 @@
         <v>0.65</v>
       </c>
       <c r="E6" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F6" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G6" s="68">
+      <c r="H6" s="68">
         <v>79550.234166666603</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="70">
         <v>34486</v>
       </c>
@@ -2552,13 +2573,16 @@
         <v>0.65</v>
       </c>
       <c r="E7" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F7" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G7" s="68">
+      <c r="H7" s="68">
         <v>81665.308333333305</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="70">
         <v>34516</v>
       </c>
@@ -2569,13 +2593,16 @@
         <v>0.65</v>
       </c>
       <c r="E8" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F8" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G8" s="68">
+      <c r="H8" s="68">
         <v>78635.607499999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="70">
         <v>34547</v>
       </c>
@@ -2586,13 +2613,16 @@
         <v>0.65</v>
       </c>
       <c r="E9" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F9" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G9" s="68">
+      <c r="H9" s="68">
         <v>80693.517500000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="70">
         <v>34578</v>
       </c>
@@ -2603,13 +2633,16 @@
         <v>0.65</v>
       </c>
       <c r="E10" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F10" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G10" s="68">
+      <c r="H10" s="68">
         <v>81979.711249999993</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="70">
         <v>34608</v>
       </c>
@@ -2620,13 +2653,16 @@
         <v>0.65</v>
       </c>
       <c r="E11" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F11" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G11" s="68">
+      <c r="H11" s="68">
         <v>81722.472500000003</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="70">
         <v>34639</v>
       </c>
@@ -2637,13 +2673,16 @@
         <v>0.65</v>
       </c>
       <c r="E12" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F12" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G12" s="68">
+      <c r="H12" s="68">
         <v>81093.666666666599</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="70">
         <v>34669</v>
       </c>
@@ -2654,13 +2693,16 @@
         <v>0.65</v>
       </c>
       <c r="E13" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F13" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G13" s="68">
+      <c r="H13" s="68">
         <v>83208.740833333301</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="70">
         <v>34700</v>
       </c>
@@ -2671,13 +2713,16 @@
         <v>0.65</v>
       </c>
       <c r="E14" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F14" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G14" s="68">
+      <c r="H14" s="68">
         <v>82248.84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="70">
         <v>34731</v>
       </c>
@@ -2688,13 +2733,16 @@
         <v>0.65</v>
       </c>
       <c r="E15" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F15" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G15" s="68">
+      <c r="H15" s="68">
         <v>82248.84</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="70">
         <v>34759</v>
       </c>
@@ -2705,13 +2753,16 @@
         <v>0.65</v>
       </c>
       <c r="E16" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F16" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G16" s="68">
+      <c r="H16" s="68">
         <v>85187.945000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="70">
         <v>34790</v>
       </c>
@@ -2722,13 +2773,16 @@
         <v>0.65</v>
       </c>
       <c r="E17" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F17" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G17" s="68">
+      <c r="H17" s="68">
         <v>85730.11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="70">
         <v>34820</v>
       </c>
@@ -2739,13 +2793,16 @@
         <v>0.65</v>
       </c>
       <c r="E18" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F18" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G18" s="68">
+      <c r="H18" s="68">
         <v>83047.820000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="70">
         <v>34851</v>
       </c>
@@ -2756,13 +2813,16 @@
         <v>0.65</v>
       </c>
       <c r="E19" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F19" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G19" s="68">
+      <c r="H19" s="68">
         <v>82705.399999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="70">
         <v>34881</v>
       </c>
@@ -2773,13 +2833,16 @@
         <v>0.65</v>
       </c>
       <c r="E20" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F20" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G20" s="68">
+      <c r="H20" s="68">
         <v>84417.5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="70">
         <v>34912</v>
       </c>
@@ -2790,13 +2853,16 @@
         <v>0.65</v>
       </c>
       <c r="E21" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F21" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G21" s="68">
+      <c r="H21" s="68">
         <v>83903.87</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="70">
         <v>34943</v>
       </c>
@@ -2807,13 +2873,16 @@
         <v>0.65</v>
       </c>
       <c r="E22" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F22" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G22" s="68">
+      <c r="H22" s="68">
         <v>85701.574999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="70">
         <v>34973</v>
       </c>
@@ -2824,13 +2893,16 @@
         <v>0.65</v>
       </c>
       <c r="E23" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F23" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G23" s="68">
+      <c r="H23" s="68">
         <v>83047.820000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="70">
         <v>35004</v>
       </c>
@@ -2841,13 +2913,16 @@
         <v>0.65</v>
       </c>
       <c r="E24" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F24" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G24" s="68">
+      <c r="H24" s="68">
         <v>87499.28</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="70">
         <v>35034</v>
       </c>
@@ -2858,13 +2933,16 @@
         <v>0.65</v>
       </c>
       <c r="E25" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F25" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G25" s="68">
+      <c r="H25" s="68">
         <v>88298.26</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="70">
         <v>35065</v>
       </c>
@@ -2875,13 +2953,16 @@
         <v>0.65</v>
       </c>
       <c r="E26" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F26" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G26" s="68">
+      <c r="H26" s="68">
         <v>82250.205699999904</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="70">
         <v>35096</v>
       </c>
@@ -2892,13 +2973,16 @@
         <v>0.65</v>
       </c>
       <c r="E27" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F27" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G27" s="68">
+      <c r="H27" s="68">
         <v>86071.064499999993</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="70">
         <v>35125</v>
       </c>
@@ -2909,13 +2993,16 @@
         <v>0.65</v>
       </c>
       <c r="E28" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F28" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G28" s="68">
+      <c r="H28" s="68">
         <v>86632.955499999996</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="70">
         <v>35156</v>
       </c>
@@ -2926,13 +3013,16 @@
         <v>0.65</v>
       </c>
       <c r="E29" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F29" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G29" s="68">
+      <c r="H29" s="68">
         <v>83935.878700000001</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="70">
         <v>35186</v>
       </c>
@@ -2943,13 +3033,16 @@
         <v>0.65</v>
       </c>
       <c r="E30" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F30" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G30" s="68">
+      <c r="H30" s="68">
         <v>87784.832049999997</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="70">
         <v>35217</v>
       </c>
@@ -2960,13 +3053,16 @@
         <v>0.65</v>
       </c>
       <c r="E31" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F31" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G31" s="68">
+      <c r="H31" s="68">
         <v>86689.1446</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="70">
         <v>35247</v>
       </c>
@@ -2977,13 +3073,16 @@
         <v>0.65</v>
       </c>
       <c r="E32" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F32" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G32" s="68">
+      <c r="H32" s="68">
         <v>86183.4427</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="70">
         <v>35278</v>
       </c>
@@ -2994,13 +3093,16 @@
         <v>0.65</v>
       </c>
       <c r="E33" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F33" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G33" s="68">
+      <c r="H33" s="68">
         <v>82250.205699999904</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="70">
         <v>35309</v>
       </c>
@@ -3011,13 +3113,16 @@
         <v>0.65</v>
       </c>
       <c r="E34" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F34" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G34" s="68">
+      <c r="H34" s="68">
         <v>87981.493900000001</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="70">
         <v>35339</v>
       </c>
@@ -3028,13 +3133,16 @@
         <v>0.65</v>
       </c>
       <c r="E35" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F35" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G35" s="68">
+      <c r="H35" s="68">
         <v>87588.170199999993</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="70">
         <v>35370</v>
       </c>
@@ -3045,13 +3153,16 @@
         <v>0.65</v>
       </c>
       <c r="E36" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F36" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G36" s="68">
+      <c r="H36" s="68">
         <v>87812.926600000006</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="70">
         <v>35400</v>
       </c>
@@ -3062,13 +3173,16 @@
         <v>0.65</v>
       </c>
       <c r="E37" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F37" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G37" s="68">
+      <c r="H37" s="68">
         <v>94611.807700000005</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="70">
         <v>35431</v>
       </c>
@@ -3079,13 +3193,16 @@
         <v>0.65</v>
       </c>
       <c r="E38" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F38" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G38" s="68">
+      <c r="H38" s="68">
         <v>83426.949599999905</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="70">
         <v>35462</v>
       </c>
@@ -3096,13 +3213,16 @@
         <v>0.65</v>
       </c>
       <c r="E39" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F39" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G39" s="68">
+      <c r="H39" s="68">
         <v>86481.718200000003</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="70">
         <v>35490</v>
       </c>
@@ -3113,16 +3233,19 @@
         <v>0.65</v>
       </c>
       <c r="E40" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F40" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F40" s="78">
+      <c r="G40" s="78">
         <v>100</v>
       </c>
-      <c r="G40" s="68">
+      <c r="H40" s="68">
         <v>88583.623200000002</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="70">
         <v>35521</v>
       </c>
@@ -3133,16 +3256,19 @@
         <v>0.65</v>
       </c>
       <c r="E41" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F41" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F41" s="78">
+      <c r="G41" s="78">
         <v>100.4</v>
       </c>
-      <c r="G41" s="68">
+      <c r="H41" s="68">
         <v>94020.550799999997</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="70">
         <v>35551</v>
       </c>
@@ -3153,16 +3279,19 @@
         <v>0.65</v>
       </c>
       <c r="E42" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F42" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F42" s="78">
+      <c r="G42" s="78">
         <v>100.4</v>
       </c>
-      <c r="G42" s="68">
+      <c r="H42" s="68">
         <v>89872.791599999997</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="70">
         <v>35582</v>
       </c>
@@ -3173,16 +3302,19 @@
         <v>0.65</v>
       </c>
       <c r="E43" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F43" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F43" s="78">
+      <c r="G43" s="78">
         <v>100.4</v>
       </c>
-      <c r="G43" s="68">
+      <c r="H43" s="68">
         <v>92675.331599999903</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="70">
         <v>35612</v>
       </c>
@@ -3193,16 +3325,19 @@
         <v>0.65</v>
       </c>
       <c r="E44" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F44" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F44" s="78">
+      <c r="G44" s="78">
         <v>105.9</v>
       </c>
-      <c r="G44" s="68">
+      <c r="H44" s="68">
         <v>92563.23</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="70">
         <v>35643</v>
       </c>
@@ -3213,16 +3348,19 @@
         <v>0.65</v>
       </c>
       <c r="E45" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F45" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F45" s="78">
+      <c r="G45" s="78">
         <v>105.9</v>
       </c>
-      <c r="G45" s="68">
+      <c r="H45" s="68">
         <v>88919.927999999898</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="70">
         <v>35674</v>
       </c>
@@ -3233,16 +3371,19 @@
         <v>0.65</v>
       </c>
       <c r="E46" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F46" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F46" s="78">
+      <c r="G46" s="78">
         <v>105.9</v>
       </c>
-      <c r="G46" s="68">
+      <c r="H46" s="68">
         <v>88415.470799999996</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="70">
         <v>35704</v>
       </c>
@@ -3253,16 +3394,19 @@
         <v>0.65</v>
       </c>
       <c r="E47" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F47" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F47" s="78">
+      <c r="G47" s="78">
         <v>106.3</v>
       </c>
-      <c r="G47" s="68">
+      <c r="H47" s="68">
         <v>96206.531999999905</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="70">
         <v>35735</v>
       </c>
@@ -3273,16 +3417,19 @@
         <v>0.65</v>
       </c>
       <c r="E48" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F48" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F48" s="78">
+      <c r="G48" s="78">
         <v>106.3</v>
       </c>
-      <c r="G48" s="68">
+      <c r="H48" s="68">
         <v>96767.039999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="70">
         <v>35765</v>
       </c>
@@ -3296,16 +3443,19 @@
         <v>0.65</v>
       </c>
       <c r="E49" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F49" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F49" s="78">
+      <c r="G49" s="78">
         <v>106.3</v>
       </c>
-      <c r="G49" s="68">
+      <c r="H49" s="68">
         <v>100410.341999999</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="70">
         <v>35796</v>
       </c>
@@ -3319,16 +3469,19 @@
         <v>0.65</v>
       </c>
       <c r="E50" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F50" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F50" s="78">
+      <c r="G50" s="78">
         <v>108</v>
       </c>
-      <c r="G50" s="68">
+      <c r="H50" s="68">
         <v>99716.641600000003</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="70">
         <v>35827</v>
       </c>
@@ -3342,16 +3495,19 @@
         <v>0.65</v>
       </c>
       <c r="E51" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F51" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F51" s="78">
+      <c r="G51" s="78">
         <v>108</v>
       </c>
-      <c r="G51" s="68">
+      <c r="H51" s="68">
         <v>99889.263999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="70">
         <v>35855</v>
       </c>
@@ -3365,16 +3521,19 @@
         <v>0.65</v>
       </c>
       <c r="E52" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F52" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F52" s="78">
+      <c r="G52" s="78">
         <v>108</v>
       </c>
-      <c r="G52" s="68">
+      <c r="H52" s="68">
         <v>100579.7536</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="70">
         <v>35886</v>
       </c>
@@ -3388,16 +3547,19 @@
         <v>0.65</v>
       </c>
       <c r="E53" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F53" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F53" s="78">
+      <c r="G53" s="78">
         <v>113.3</v>
       </c>
-      <c r="G53" s="68">
+      <c r="H53" s="68">
         <v>101155.161599999</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="70">
         <v>35916</v>
       </c>
@@ -3411,16 +3573,19 @@
         <v>0.65</v>
       </c>
       <c r="E54" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F54" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F54" s="78">
+      <c r="G54" s="78">
         <v>113.3</v>
       </c>
-      <c r="G54" s="68">
+      <c r="H54" s="68">
         <v>99083.692800000004</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="70">
         <v>35947</v>
       </c>
@@ -3434,16 +3599,19 @@
         <v>0.65</v>
       </c>
       <c r="E55" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F55" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F55" s="78">
+      <c r="G55" s="78">
         <v>113.3</v>
       </c>
-      <c r="G55" s="68">
+      <c r="H55" s="68">
         <v>98163.04</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="70">
         <v>35977</v>
       </c>
@@ -3457,16 +3625,19 @@
         <v>0.65</v>
       </c>
       <c r="E56" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F56" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F56" s="78">
+      <c r="G56" s="78">
         <v>114</v>
       </c>
-      <c r="G56" s="68">
+      <c r="H56" s="68">
         <v>99285.085599999904</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="70">
         <v>36008</v>
       </c>
@@ -3480,16 +3651,19 @@
         <v>0.65</v>
       </c>
       <c r="E57" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F57" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F57" s="78">
+      <c r="G57" s="78">
         <v>114</v>
       </c>
-      <c r="G57" s="68">
+      <c r="H57" s="68">
         <v>96551.897599999997</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="70">
         <v>36039</v>
       </c>
@@ -3503,16 +3677,19 @@
         <v>0.65</v>
       </c>
       <c r="E58" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F58" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F58" s="78">
+      <c r="G58" s="78">
         <v>114</v>
       </c>
-      <c r="G58" s="68">
+      <c r="H58" s="68">
         <v>102823.844799999</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="70">
         <v>36069</v>
       </c>
@@ -3526,16 +3703,19 @@
         <v>0.65</v>
       </c>
       <c r="E59" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F59" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F59" s="78">
+      <c r="G59" s="78">
         <v>115.4</v>
       </c>
-      <c r="G59" s="68">
+      <c r="H59" s="68">
         <v>103917.12</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="70">
         <v>36100</v>
       </c>
@@ -3549,16 +3729,19 @@
         <v>0.65</v>
       </c>
       <c r="E60" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F60" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F60" s="78">
+      <c r="G60" s="78">
         <v>115.4</v>
       </c>
-      <c r="G60" s="68">
+      <c r="H60" s="68">
         <v>106621.5376</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="70">
         <v>36130</v>
       </c>
@@ -3572,16 +3755,19 @@
         <v>0.65</v>
       </c>
       <c r="E61" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F61" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F61" s="78">
+      <c r="G61" s="78">
         <v>115.4</v>
       </c>
-      <c r="G61" s="68">
+      <c r="H61" s="68">
         <v>109671.2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="70">
         <v>36161</v>
       </c>
@@ -3595,16 +3781,19 @@
         <v>0.65</v>
       </c>
       <c r="E62" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F62" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F62" s="78">
+      <c r="G62" s="78">
         <v>115.4</v>
       </c>
-      <c r="G62" s="68">
+      <c r="H62" s="68">
         <v>108699.01119999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="70">
         <v>36192</v>
       </c>
@@ -3618,16 +3807,19 @@
         <v>0.65</v>
       </c>
       <c r="E63" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F63" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F63" s="78">
+      <c r="G63" s="78">
         <v>115.4</v>
       </c>
-      <c r="G63" s="68">
+      <c r="H63" s="68">
         <v>109862.8832</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="70">
         <v>36220</v>
       </c>
@@ -3641,16 +3833,19 @@
         <v>0.65</v>
       </c>
       <c r="E64" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F64" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F64" s="78">
+      <c r="G64" s="78">
         <v>115.4</v>
       </c>
-      <c r="G64" s="68">
+      <c r="H64" s="68">
         <v>110270.2384</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="70">
         <v>36251</v>
       </c>
@@ -3664,16 +3859,19 @@
         <v>0.65</v>
       </c>
       <c r="E65" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F65" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F65" s="78">
+      <c r="G65" s="78">
         <v>115.4</v>
       </c>
-      <c r="G65" s="68">
+      <c r="H65" s="68">
         <v>110677.59359999999</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="70">
         <v>36281</v>
       </c>
@@ -3687,16 +3885,19 @@
         <v>0.65</v>
       </c>
       <c r="E66" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F66" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F66" s="78">
+      <c r="G66" s="78">
         <v>115.4</v>
       </c>
-      <c r="G66" s="68">
+      <c r="H66" s="68">
         <v>110619.4</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="70">
         <v>36312</v>
       </c>
@@ -3710,16 +3911,19 @@
         <v>0.65</v>
       </c>
       <c r="E67" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F67" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F67" s="78">
+      <c r="G67" s="78">
         <v>115.4</v>
       </c>
-      <c r="G67" s="68">
+      <c r="H67" s="68">
         <v>108931.7856</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="70">
         <v>36342</v>
       </c>
@@ -3733,16 +3937,19 @@
         <v>0.65</v>
       </c>
       <c r="E68" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F68" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F68" s="78">
+      <c r="G68" s="78">
         <v>115.4</v>
       </c>
-      <c r="G68" s="68">
+      <c r="H68" s="68">
         <v>108757.20480000001</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="70">
         <v>36373</v>
       </c>
@@ -3756,16 +3963,19 @@
         <v>0.65</v>
       </c>
       <c r="E69" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F69" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F69" s="78">
+      <c r="G69" s="78">
         <v>118.5</v>
       </c>
-      <c r="G69" s="68">
+      <c r="H69" s="68">
         <v>107360.55839999999</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="70">
         <v>36404</v>
       </c>
@@ -3779,16 +3989,19 @@
         <v>0.65</v>
       </c>
       <c r="E70" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F70" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F70" s="78">
+      <c r="G70" s="78">
         <v>118.6</v>
       </c>
-      <c r="G70" s="68">
+      <c r="H70" s="68">
         <v>112888.9504</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="70">
         <v>36434</v>
       </c>
@@ -3802,16 +4015,19 @@
         <v>0.65</v>
       </c>
       <c r="E71" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F71" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F71" s="78">
+      <c r="G71" s="78">
         <v>118.9</v>
       </c>
-      <c r="G71" s="68">
+      <c r="H71" s="68">
         <v>113703.6608</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="70">
         <v>36465</v>
       </c>
@@ -3825,16 +4041,19 @@
         <v>0.65</v>
       </c>
       <c r="E72" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F72" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F72" s="78">
+      <c r="G72" s="78">
         <v>119.2</v>
       </c>
-      <c r="G72" s="68">
+      <c r="H72" s="68">
         <v>117311.663999999</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="70">
         <v>36495</v>
       </c>
@@ -3848,16 +4067,19 @@
         <v>0.65</v>
       </c>
       <c r="E73" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F73" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F73" s="78">
+      <c r="G73" s="78">
         <v>119.1</v>
       </c>
-      <c r="G73" s="68">
+      <c r="H73" s="68">
         <v>122258.12</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="70">
         <v>36526</v>
       </c>
@@ -3871,16 +4093,19 @@
         <v>0.65</v>
       </c>
       <c r="E74" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F74" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F74" s="78">
+      <c r="G74" s="78">
         <v>119.2</v>
       </c>
-      <c r="G74" s="68">
+      <c r="H74" s="68">
         <v>115504.74159999999</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="70">
         <v>36557</v>
       </c>
@@ -3894,16 +4119,19 @@
         <v>0.65</v>
       </c>
       <c r="E75" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F75" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F75" s="78">
+      <c r="G75" s="78">
         <v>120.2</v>
       </c>
-      <c r="G75" s="68">
+      <c r="H75" s="68">
         <v>115853.7304</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="70">
         <v>36586</v>
       </c>
@@ -3917,16 +4145,19 @@
         <v>0.65</v>
       </c>
       <c r="E76" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F76" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F76" s="78">
+      <c r="G76" s="78">
         <v>120.2</v>
       </c>
-      <c r="G76" s="68">
+      <c r="H76" s="68">
         <v>116958.8616</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="70">
         <v>36617</v>
       </c>
@@ -3940,16 +4171,19 @@
         <v>0.65</v>
       </c>
       <c r="E77" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F77" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F77" s="78">
+      <c r="G77" s="78">
         <v>137</v>
       </c>
-      <c r="G77" s="68">
+      <c r="H77" s="68">
         <v>117947.6632</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="70">
         <v>36647</v>
       </c>
@@ -3963,16 +4197,19 @@
         <v>0.65</v>
       </c>
       <c r="E78" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F78" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F78" s="78">
+      <c r="G78" s="78">
         <v>139.19999999999999</v>
       </c>
-      <c r="G78" s="68">
+      <c r="H78" s="68">
         <v>122833.5064</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="70">
         <v>36678</v>
       </c>
@@ -3986,16 +4223,19 @@
         <v>0.65</v>
       </c>
       <c r="E79" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F79" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F79" s="78">
+      <c r="G79" s="78">
         <v>139.5</v>
       </c>
-      <c r="G79" s="68">
+      <c r="H79" s="68">
         <v>120157.9256</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="70">
         <v>36708</v>
       </c>
@@ -4009,16 +4249,19 @@
         <v>0.65</v>
       </c>
       <c r="E80" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F80" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F80" s="78">
+      <c r="G80" s="78">
         <v>139.80000000000001</v>
       </c>
-      <c r="G80" s="68">
+      <c r="H80" s="68">
         <v>120681.4088</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="70">
         <v>36739</v>
       </c>
@@ -4032,16 +4275,19 @@
         <v>0.65</v>
       </c>
       <c r="E81" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F81" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F81" s="78">
+      <c r="G81" s="78">
         <v>140</v>
       </c>
-      <c r="G81" s="68">
+      <c r="H81" s="68">
         <v>117482.344799999</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="70">
         <v>36770</v>
       </c>
@@ -4055,16 +4301,19 @@
         <v>0.65</v>
       </c>
       <c r="E82" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F82" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F82" s="78">
+      <c r="G82" s="78">
         <v>139.69999999999999</v>
       </c>
-      <c r="G82" s="68">
+      <c r="H82" s="68">
         <v>124316.70879999999</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="70">
         <v>36800</v>
       </c>
@@ -4078,16 +4327,19 @@
         <v>0.65</v>
       </c>
       <c r="E83" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F83" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F83" s="78">
+      <c r="G83" s="78">
         <v>139.80000000000001</v>
       </c>
-      <c r="G83" s="68">
+      <c r="H83" s="68">
         <v>126148.9</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="70">
         <v>36831</v>
       </c>
@@ -4101,16 +4353,19 @@
         <v>0.65</v>
       </c>
       <c r="E84" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F84" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F84" s="78">
+      <c r="G84" s="78">
         <v>140.5</v>
       </c>
-      <c r="G84" s="68">
+      <c r="H84" s="68">
         <v>129057.14</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="70">
         <v>36861</v>
       </c>
@@ -4124,16 +4379,19 @@
         <v>0.65</v>
       </c>
       <c r="E85" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F85" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F85" s="78">
+      <c r="G85" s="78">
         <v>140.69999999999999</v>
       </c>
-      <c r="G85" s="68">
+      <c r="H85" s="68">
         <v>126846.87760000001</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="70">
         <v>36892</v>
       </c>
@@ -4147,16 +4405,19 @@
         <v>0.65</v>
       </c>
       <c r="E86" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F86" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F86" s="78">
+      <c r="G86" s="78">
         <v>140.4</v>
       </c>
-      <c r="G86" s="68">
+      <c r="H86" s="68">
         <v>130828.06080000001</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="70">
         <v>36923</v>
       </c>
@@ -4170,16 +4431,19 @@
         <v>0.65</v>
       </c>
       <c r="E87" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F87" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F87" s="78">
+      <c r="G87" s="78">
         <v>142.19999999999999</v>
       </c>
-      <c r="G87" s="68">
+      <c r="H87" s="68">
         <v>129903.41439999999</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="70">
         <v>36951</v>
       </c>
@@ -4193,16 +4457,19 @@
         <v>0.65</v>
       </c>
       <c r="E88" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F88" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F88" s="78">
+      <c r="G88" s="78">
         <v>143.30000000000001</v>
       </c>
-      <c r="G88" s="68">
+      <c r="H88" s="68">
         <v>129556.67200000001</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="70">
         <v>36982</v>
       </c>
@@ -4216,16 +4483,19 @@
         <v>0.65</v>
       </c>
       <c r="E89" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F89" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F89" s="78">
+      <c r="G89" s="78">
         <v>144.5</v>
       </c>
-      <c r="G89" s="68">
+      <c r="H89" s="68">
         <v>132157.24</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="70">
         <v>37012</v>
       </c>
@@ -4239,16 +4509,19 @@
         <v>0.65</v>
       </c>
       <c r="E90" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F90" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F90" s="78">
+      <c r="G90" s="78">
         <v>145.19999999999999</v>
       </c>
-      <c r="G90" s="68">
+      <c r="H90" s="68">
         <v>133139.67679999999</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="70">
         <v>37043</v>
       </c>
@@ -4262,16 +4535,19 @@
         <v>0.65</v>
       </c>
       <c r="E91" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F91" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F91" s="78">
+      <c r="G91" s="78">
         <v>147.4</v>
       </c>
-      <c r="G91" s="68">
+      <c r="H91" s="68">
         <v>129267.72</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="70">
         <v>37073</v>
       </c>
@@ -4285,16 +4561,19 @@
         <v>0.65</v>
       </c>
       <c r="E92" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F92" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F92" s="78">
+      <c r="G92" s="78">
         <v>148.4</v>
       </c>
-      <c r="G92" s="68">
+      <c r="H92" s="68">
         <v>129267.72</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="70">
         <v>37104</v>
       </c>
@@ -4308,16 +4587,19 @@
         <v>0.65</v>
       </c>
       <c r="E93" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F93" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F93" s="78">
+      <c r="G93" s="78">
         <v>149.5</v>
       </c>
-      <c r="G93" s="68">
+      <c r="H93" s="68">
         <v>129209.9296</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="70">
         <v>37135</v>
       </c>
@@ -4331,16 +4613,19 @@
         <v>0.65</v>
       </c>
       <c r="E94" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F94" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F94" s="78">
+      <c r="G94" s="78">
         <v>149.69999999999999</v>
       </c>
-      <c r="G94" s="68">
+      <c r="H94" s="68">
         <v>132157.24</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="70">
         <v>37165</v>
       </c>
@@ -4354,16 +4639,19 @@
         <v>0.65</v>
       </c>
       <c r="E95" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F95" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F95" s="78">
+      <c r="G95" s="78">
         <v>149.9</v>
       </c>
-      <c r="G95" s="68">
+      <c r="H95" s="68">
         <v>135046.76</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="70">
         <v>37196</v>
       </c>
@@ -4377,16 +4665,19 @@
         <v>0.65</v>
       </c>
       <c r="E96" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F96" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F96" s="78">
+      <c r="G96" s="78">
         <v>150.5</v>
       </c>
-      <c r="G96" s="68">
+      <c r="H96" s="68">
         <v>141808.23680000001</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="70">
         <v>37226</v>
       </c>
@@ -4400,16 +4691,19 @@
         <v>0.65</v>
       </c>
       <c r="E97" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F97" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F97" s="78">
+      <c r="G97" s="78">
         <v>150.80000000000001</v>
       </c>
-      <c r="G97" s="68">
+      <c r="H97" s="68">
         <v>137762.9088</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="70">
         <v>37257</v>
       </c>
@@ -4423,16 +4717,19 @@
         <v>0.65</v>
       </c>
       <c r="E98" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F98" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F98" s="78">
+      <c r="G98" s="78">
         <v>152.30000000000001</v>
       </c>
-      <c r="G98" s="68">
+      <c r="H98" s="68">
         <v>139105.12</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="70">
         <v>37288</v>
       </c>
@@ -4446,16 +4743,19 @@
         <v>0.65</v>
       </c>
       <c r="E99" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F99" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F99" s="78">
+      <c r="G99" s="78">
         <v>152.30000000000001</v>
       </c>
-      <c r="G99" s="68">
+      <c r="H99" s="68">
         <v>139511.1312</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="70">
         <v>37316</v>
       </c>
@@ -4469,16 +4769,19 @@
         <v>0.65</v>
       </c>
       <c r="E100" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F100" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F100" s="78">
+      <c r="G100" s="78">
         <v>152.30000000000001</v>
       </c>
-      <c r="G100" s="68">
+      <c r="H100" s="68">
         <v>139221.1232</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="70">
         <v>37347</v>
       </c>
@@ -4492,16 +4795,19 @@
         <v>0.65</v>
       </c>
       <c r="E101" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F101" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F101" s="78">
+      <c r="G101" s="78">
         <v>158.6</v>
       </c>
-      <c r="G101" s="68">
+      <c r="H101" s="68">
         <v>141019.1728</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="70">
         <v>37377</v>
       </c>
@@ -4515,16 +4821,19 @@
         <v>0.65</v>
       </c>
       <c r="E102" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F102" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F102" s="78">
+      <c r="G102" s="78">
         <v>158.80000000000001</v>
       </c>
-      <c r="G102" s="68">
+      <c r="H102" s="68">
         <v>140149.1488</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="70">
         <v>37408</v>
       </c>
@@ -4538,16 +4847,19 @@
         <v>0.65</v>
       </c>
       <c r="E103" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F103" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F103" s="78">
+      <c r="G103" s="78">
         <v>158.80000000000001</v>
       </c>
-      <c r="G103" s="68">
+      <c r="H103" s="68">
         <v>136437.04639999999</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="70">
         <v>37438</v>
       </c>
@@ -4561,16 +4873,19 @@
         <v>0.65</v>
       </c>
       <c r="E104" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F104" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F104" s="78">
+      <c r="G104" s="78">
         <v>161.19999999999999</v>
       </c>
-      <c r="G104" s="68">
+      <c r="H104" s="68">
         <v>136437.04639999999</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="70">
         <v>37469</v>
       </c>
@@ -4584,16 +4899,19 @@
         <v>0.65</v>
       </c>
       <c r="E105" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F105" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F105" s="78">
+      <c r="G105" s="78">
         <v>161.30000000000001</v>
       </c>
-      <c r="G105" s="68">
+      <c r="H105" s="68">
         <v>136205.03999999899</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="70">
         <v>37500</v>
       </c>
@@ -4607,16 +4925,19 @@
         <v>0.65</v>
       </c>
       <c r="E106" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F106" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F106" s="78">
+      <c r="G106" s="78">
         <v>162.80000000000001</v>
       </c>
-      <c r="G106" s="68">
+      <c r="H106" s="68">
         <v>140845.16800000001</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="70">
         <v>37530</v>
       </c>
@@ -4630,16 +4951,19 @@
         <v>0.65</v>
       </c>
       <c r="E107" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F107" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F107" s="78">
+      <c r="G107" s="78">
         <v>163.19999999999999</v>
       </c>
-      <c r="G107" s="68">
+      <c r="H107" s="68">
         <v>142875.22399999999</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="70">
         <v>37561</v>
       </c>
@@ -4653,16 +4977,19 @@
         <v>0.65</v>
       </c>
       <c r="E108" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F108" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F108" s="78">
+      <c r="G108" s="78">
         <v>163.5</v>
       </c>
-      <c r="G108" s="68">
+      <c r="H108" s="68">
         <v>151285.45600000001</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="70">
         <v>37591</v>
       </c>
@@ -4676,16 +5003,19 @@
         <v>0.65</v>
       </c>
       <c r="E109" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F109" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F109" s="78">
+      <c r="G109" s="78">
         <v>169.2</v>
       </c>
-      <c r="G109" s="68">
+      <c r="H109" s="68">
         <v>141193.1776</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="70">
         <v>37622</v>
       </c>
@@ -4699,16 +5029,19 @@
         <v>0.65</v>
       </c>
       <c r="E110" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F110" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F110" s="78">
+      <c r="G110" s="78">
         <v>169.3</v>
       </c>
-      <c r="G110" s="68">
+      <c r="H110" s="68">
         <v>147042.416</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="70">
         <v>37653</v>
       </c>
@@ -4722,16 +5055,19 @@
         <v>0.65</v>
       </c>
       <c r="E111" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F111" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F111" s="78">
+      <c r="G111" s="78">
         <v>169.6</v>
       </c>
-      <c r="G111" s="68">
+      <c r="H111" s="68">
         <v>147448.35999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="70">
         <v>37681</v>
       </c>
@@ -4745,16 +5081,19 @@
         <v>0.65</v>
       </c>
       <c r="E112" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F112" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F112" s="78">
+      <c r="G112" s="78">
         <v>174.4</v>
       </c>
-      <c r="G112" s="68">
+      <c r="H112" s="68">
         <v>147796.31200000001</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="70">
         <v>37712</v>
       </c>
@@ -4768,16 +5107,19 @@
         <v>0.65</v>
       </c>
       <c r="E113" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F113" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F113" s="78">
+      <c r="G113" s="78">
         <v>175.1</v>
       </c>
-      <c r="G113" s="68">
+      <c r="H113" s="68">
         <v>148956.152</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="70">
         <v>37742</v>
       </c>
@@ -4791,16 +5133,19 @@
         <v>0.65</v>
       </c>
       <c r="E114" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F114" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F114" s="78">
+      <c r="G114" s="78">
         <v>175.2</v>
       </c>
-      <c r="G114" s="68">
+      <c r="H114" s="68">
         <v>149768.03999999899</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="70">
         <v>37773</v>
       </c>
@@ -4814,16 +5159,19 @@
         <v>0.65</v>
       </c>
       <c r="E115" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F115" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F115" s="78">
+      <c r="G115" s="78">
         <v>175.8</v>
       </c>
-      <c r="G115" s="68">
+      <c r="H115" s="68">
         <v>147564.34399999899</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="70">
         <v>37803</v>
       </c>
@@ -4837,16 +5185,19 @@
         <v>0.65</v>
       </c>
       <c r="E116" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F116" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F116" s="78">
+      <c r="G116" s="78">
         <v>175.9</v>
       </c>
-      <c r="G116" s="68">
+      <c r="H116" s="68">
         <v>142751.008</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="70">
         <v>37834</v>
       </c>
@@ -4860,16 +5211,19 @@
         <v>0.65</v>
       </c>
       <c r="E117" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F117" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F117" s="78">
+      <c r="G117" s="78">
         <v>175.8</v>
       </c>
-      <c r="G117" s="68">
+      <c r="H117" s="68">
         <v>143736.872</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="70">
         <v>37865</v>
       </c>
@@ -4883,16 +5237,19 @@
         <v>0.65</v>
       </c>
       <c r="E118" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F118" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F118" s="78">
+      <c r="G118" s="78">
         <v>177.2</v>
       </c>
-      <c r="G118" s="68">
+      <c r="H118" s="68">
         <v>150637.91999999899</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="70">
         <v>37895</v>
       </c>
@@ -4906,16 +5263,19 @@
         <v>0.65</v>
       </c>
       <c r="E119" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F119" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F119" s="78">
+      <c r="G119" s="78">
         <v>177.8</v>
       </c>
-      <c r="G119" s="68">
+      <c r="H119" s="68">
         <v>150579.92800000001</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="70">
         <v>37926</v>
       </c>
@@ -4929,16 +5289,19 @@
         <v>0.65</v>
       </c>
       <c r="E120" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F120" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F120" s="78">
+      <c r="G120" s="78">
         <v>178.2</v>
       </c>
-      <c r="G120" s="68">
+      <c r="H120" s="68">
         <v>163048.20799999899</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="70">
         <v>37956</v>
       </c>
@@ -4952,16 +5315,19 @@
         <v>0.65</v>
       </c>
       <c r="E121" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F121" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F121" s="78">
+      <c r="G121" s="78">
         <v>180</v>
       </c>
-      <c r="G121" s="68">
+      <c r="H121" s="68">
         <v>152232.70000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="70">
         <v>37987</v>
       </c>
@@ -4975,16 +5341,19 @@
         <v>0.65</v>
       </c>
       <c r="E122" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F122" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F122" s="78">
+      <c r="G122" s="78">
         <v>180.2</v>
       </c>
-      <c r="G122" s="68">
+      <c r="H122" s="68">
         <v>150899.319466666</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="70">
         <v>38018</v>
       </c>
@@ -4998,16 +5367,19 @@
         <v>0.65</v>
       </c>
       <c r="E123" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F123" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F123" s="78">
+      <c r="G123" s="78">
         <v>180.2</v>
       </c>
-      <c r="G123" s="68">
+      <c r="H123" s="68">
         <v>152116.54666666599</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="70">
         <v>38047</v>
       </c>
@@ -5021,16 +5393,19 @@
         <v>0.65</v>
       </c>
       <c r="E124" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F124" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F124" s="78">
+      <c r="G124" s="78">
         <v>186.8</v>
       </c>
-      <c r="G124" s="68">
+      <c r="H124" s="68">
         <v>153391.73706666601</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="70">
         <v>38078</v>
       </c>
@@ -5044,16 +5419,19 @@
         <v>0.65</v>
       </c>
       <c r="E125" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F125" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F125" s="78">
+      <c r="G125" s="78">
         <v>187.3</v>
       </c>
-      <c r="G125" s="68">
+      <c r="H125" s="68">
         <v>154666.92746666601</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="70">
         <v>38108</v>
       </c>
@@ -5067,16 +5445,19 @@
         <v>0.65</v>
       </c>
       <c r="E126" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F126" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F126" s="78">
+      <c r="G126" s="78">
         <v>187.8</v>
       </c>
-      <c r="G126" s="68">
+      <c r="H126" s="68">
         <v>163187.51786666599</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="70">
         <v>38139</v>
       </c>
@@ -5090,16 +5471,19 @@
         <v>0.65</v>
       </c>
       <c r="E127" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F127" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F127" s="78">
+      <c r="G127" s="78">
         <v>188.5</v>
       </c>
-      <c r="G127" s="68">
+      <c r="H127" s="68">
         <v>154087.29546666599</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="70">
         <v>38169</v>
       </c>
@@ -5113,16 +5497,19 @@
         <v>0.65</v>
       </c>
       <c r="E128" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F128" s="69">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F128" s="78">
+      <c r="G128" s="78">
         <v>189.3</v>
       </c>
-      <c r="G128" s="68">
+      <c r="H128" s="68">
         <v>152812.105066666</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="70">
         <v>38200</v>
       </c>
@@ -5136,16 +5523,19 @@
         <v>0.65</v>
       </c>
       <c r="E129" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="F129" s="69">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F129" s="78">
+      <c r="G129" s="78">
         <v>188.8</v>
       </c>
-      <c r="G129" s="68">
+      <c r="H129" s="68">
         <v>154551.00106666601</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="70">
         <v>38231</v>
       </c>
@@ -5159,16 +5549,19 @@
         <v>0.8</v>
       </c>
       <c r="E130" s="69">
+        <v>0.72500000000000009</v>
+      </c>
+      <c r="F130" s="69">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="F130" s="78">
+      <c r="G130" s="78">
         <v>194.9</v>
       </c>
-      <c r="G130" s="68">
+      <c r="H130" s="68">
         <v>157854.903466666</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="70">
         <v>38261</v>
       </c>
@@ -5182,16 +5575,19 @@
         <v>0.8</v>
       </c>
       <c r="E131" s="69">
+        <v>0.72500000000000009</v>
+      </c>
+      <c r="F131" s="69">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F131" s="78">
+      <c r="G131" s="78">
         <v>195.3</v>
       </c>
-      <c r="G131" s="68">
+      <c r="H131" s="68">
         <v>163303.44426666599</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="70">
         <v>38292</v>
       </c>
@@ -5205,16 +5601,19 @@
         <v>1</v>
       </c>
       <c r="E132" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F132" s="69">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="F132" s="78">
+      <c r="G132" s="78">
         <v>195.9</v>
       </c>
-      <c r="G132" s="68">
+      <c r="H132" s="68">
         <v>170896.623466666</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="70">
         <v>38322</v>
       </c>
@@ -5228,16 +5627,19 @@
         <v>1</v>
       </c>
       <c r="E133" s="69">
+        <v>0.95</v>
+      </c>
+      <c r="F133" s="69">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="F133" s="78">
+      <c r="G133" s="78">
         <v>195.7</v>
       </c>
-      <c r="G133" s="68">
+      <c r="H133" s="68">
         <v>162144.18026666599</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="70">
         <v>38353</v>
       </c>
@@ -5251,16 +5653,19 @@
         <v>1</v>
       </c>
       <c r="E134" s="69">
+        <v>0.95</v>
+      </c>
+      <c r="F134" s="69">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="F134" s="78">
+      <c r="G134" s="78">
         <v>196.1</v>
       </c>
-      <c r="G134" s="68">
+      <c r="H134" s="68">
         <v>164747.0232</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="70">
         <v>38384</v>
       </c>
@@ -5274,16 +5679,19 @@
         <v>1</v>
       </c>
       <c r="E135" s="69">
+        <v>0.95</v>
+      </c>
+      <c r="F135" s="69">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="F135" s="78">
+      <c r="G135" s="78">
         <v>196.4</v>
       </c>
-      <c r="G135" s="68">
+      <c r="H135" s="68">
         <v>169743.25520000001</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="70">
         <v>38412</v>
       </c>
@@ -5297,16 +5705,19 @@
         <v>1</v>
       </c>
       <c r="E136" s="69">
+        <v>0.95</v>
+      </c>
+      <c r="F136" s="69">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="F136" s="78">
+      <c r="G136" s="78">
         <v>197.9</v>
       </c>
-      <c r="G136" s="68">
+      <c r="H136" s="68">
         <v>169155.4632</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="70">
         <v>38443</v>
       </c>
@@ -5320,16 +5731,19 @@
         <v>1</v>
       </c>
       <c r="E137" s="69">
+        <v>0.95</v>
+      </c>
+      <c r="F137" s="69">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="F137" s="78">
+      <c r="G137" s="78">
         <v>198.6</v>
       </c>
-      <c r="G137" s="68">
+      <c r="H137" s="68">
         <v>171124.56640000001</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="70">
         <v>38473</v>
       </c>
@@ -5343,16 +5757,19 @@
         <v>1</v>
       </c>
       <c r="E138" s="69">
+        <v>0.95</v>
+      </c>
+      <c r="F138" s="69">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="F138" s="78">
+      <c r="G138" s="78">
         <v>198.7</v>
       </c>
-      <c r="G138" s="68">
+      <c r="H138" s="68">
         <v>172799.77359999999</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="70">
         <v>38504</v>
       </c>
@@ -5366,16 +5783,19 @@
         <v>1</v>
       </c>
       <c r="E139" s="69">
+        <v>0.95</v>
+      </c>
+      <c r="F139" s="69">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="F139" s="78">
+      <c r="G139" s="78">
         <v>200.2</v>
       </c>
-      <c r="G139" s="68">
+      <c r="H139" s="68">
         <v>166216.50319999899</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="70">
         <v>38534</v>
       </c>
@@ -5389,16 +5809,19 @@
         <v>1</v>
       </c>
       <c r="E140" s="69">
+        <v>0.95</v>
+      </c>
+      <c r="F140" s="69">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="F140" s="78">
+      <c r="G140" s="78">
         <v>200.7</v>
       </c>
-      <c r="G140" s="68">
+      <c r="H140" s="68">
         <v>163542.0496</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="70">
         <v>38565</v>
       </c>
@@ -5412,16 +5835,19 @@
         <v>1</v>
       </c>
       <c r="E141" s="69">
+        <v>0.95</v>
+      </c>
+      <c r="F141" s="69">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="F141" s="78">
+      <c r="G141" s="78">
         <v>200.9</v>
       </c>
-      <c r="G141" s="68">
+      <c r="H141" s="68">
         <v>164629.46479999999</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="70">
         <v>38596</v>
       </c>
@@ -5435,16 +5861,19 @@
         <v>1</v>
       </c>
       <c r="E142" s="69">
+        <v>0.95</v>
+      </c>
+      <c r="F142" s="69">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="F142" s="78">
+      <c r="G142" s="78">
         <v>203.2</v>
       </c>
-      <c r="G142" s="68">
+      <c r="H142" s="68">
         <v>173270.00719999999</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="70">
         <v>38626</v>
       </c>
@@ -5458,16 +5887,19 @@
         <v>1</v>
       </c>
       <c r="E143" s="69">
+        <v>0.95</v>
+      </c>
+      <c r="F143" s="69">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="F143" s="78">
+      <c r="G143" s="78">
         <v>204.6</v>
       </c>
-      <c r="G143" s="68">
+      <c r="H143" s="68">
         <v>175268.5</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="70">
         <v>38657</v>
       </c>
@@ -5481,16 +5913,19 @@
         <v>1</v>
       </c>
       <c r="E144" s="69">
+        <v>0.95</v>
+      </c>
+      <c r="F144" s="69">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="F144" s="78">
+      <c r="G144" s="78">
         <v>205.2</v>
       </c>
-      <c r="G144" s="68">
+      <c r="H144" s="68">
         <v>194606.85680000001</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="70">
         <v>38687</v>
       </c>
@@ -5504,16 +5939,19 @@
         <v>1</v>
       </c>
       <c r="E145" s="69">
+        <v>0.95</v>
+      </c>
+      <c r="F145" s="69">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="F145" s="78">
+      <c r="G145" s="78">
         <v>209.2</v>
       </c>
-      <c r="G145" s="68">
+      <c r="H145" s="68">
         <v>176855.53839999999</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="70">
         <v>38718</v>
       </c>
@@ -5527,16 +5965,19 @@
         <v>1</v>
       </c>
       <c r="E146" s="69">
+        <v>0.95</v>
+      </c>
+      <c r="F146" s="69">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="F146" s="78">
+      <c r="G146" s="78">
         <v>209.5</v>
       </c>
-      <c r="G146" s="68">
+      <c r="H146" s="68">
         <v>182015.38573333301</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="70">
         <v>38749</v>
       </c>
@@ -5550,16 +5991,19 @@
         <v>1</v>
       </c>
       <c r="E147" s="69">
+        <v>0.95</v>
+      </c>
+      <c r="F147" s="69">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="F147" s="78">
+      <c r="G147" s="78">
         <v>209.9</v>
       </c>
-      <c r="G147" s="68">
+      <c r="H147" s="68">
         <v>184255.965733333</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="70">
         <v>38777</v>
       </c>
@@ -5573,16 +6017,19 @@
         <v>1</v>
       </c>
       <c r="E148" s="69">
+        <v>0.95</v>
+      </c>
+      <c r="F148" s="69">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F148" s="78">
+      <c r="G148" s="78">
         <v>212</v>
       </c>
-      <c r="G148" s="68">
+      <c r="H148" s="68">
         <v>184674.207333333</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="70">
         <v>38808</v>
       </c>
@@ -5596,16 +6043,19 @@
         <v>1</v>
       </c>
       <c r="E149" s="69">
+        <v>0.95</v>
+      </c>
+      <c r="F149" s="69">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="F149" s="78">
+      <c r="G149" s="78">
         <v>213.5</v>
       </c>
-      <c r="G149" s="68">
+      <c r="H149" s="68">
         <v>185988.680933333</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="70">
         <v>38838</v>
       </c>
@@ -5619,16 +6069,19 @@
         <v>1</v>
       </c>
       <c r="E150" s="69">
+        <v>0.95</v>
+      </c>
+      <c r="F150" s="69">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="F150" s="78">
+      <c r="G150" s="78">
         <v>214.6</v>
       </c>
-      <c r="G150" s="68">
+      <c r="H150" s="68">
         <v>186705.66653333299</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="70">
         <v>38869</v>
       </c>
@@ -5642,16 +6095,19 @@
         <v>1</v>
       </c>
       <c r="E151" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="F151" s="69">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="F151" s="78">
+      <c r="G151" s="78">
         <v>217.8</v>
       </c>
-      <c r="G151" s="68">
+      <c r="H151" s="68">
         <v>178609.704133333</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="70">
         <v>38899</v>
       </c>
@@ -5665,16 +6121,19 @@
         <v>1</v>
       </c>
       <c r="E152" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="F152" s="69">
         <v>4.7E-2</v>
       </c>
-      <c r="F152" s="78">
+      <c r="G152" s="78">
         <v>218.6</v>
       </c>
-      <c r="G152" s="68">
+      <c r="H152" s="68">
         <v>183060.989733333</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="70">
         <v>38930</v>
       </c>
@@ -5688,16 +6147,19 @@
         <v>1</v>
       </c>
       <c r="E153" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="F153" s="69">
         <v>4.7E-2</v>
       </c>
-      <c r="F153" s="78">
+      <c r="G153" s="78">
         <v>219.2</v>
       </c>
-      <c r="G153" s="68">
+      <c r="H153" s="68">
         <v>185570.43933333299</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="70">
         <v>38961</v>
       </c>
@@ -5711,16 +6173,19 @@
         <v>1</v>
       </c>
       <c r="E154" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="F154" s="69">
         <v>4.7E-2</v>
       </c>
-      <c r="F154" s="78">
+      <c r="G154" s="78">
         <v>222.5</v>
       </c>
-      <c r="G154" s="68">
+      <c r="H154" s="68">
         <v>193337.78333333301</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="70">
         <v>38991</v>
       </c>
@@ -5734,16 +6199,19 @@
         <v>1</v>
       </c>
       <c r="E155" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="F155" s="69">
         <v>4.7E-2</v>
       </c>
-      <c r="F155" s="78">
+      <c r="G155" s="78">
         <v>223.1</v>
       </c>
-      <c r="G155" s="68">
+      <c r="H155" s="68">
         <v>194174.26653333299</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="70">
         <v>39022</v>
       </c>
@@ -5757,16 +6225,19 @@
         <v>1</v>
       </c>
       <c r="E156" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="F156" s="69">
         <v>4.7E-2</v>
       </c>
-      <c r="F156" s="78">
+      <c r="G156" s="78">
         <v>223.4</v>
       </c>
-      <c r="G156" s="68">
+      <c r="H156" s="68">
         <v>209051.717733333</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="70">
         <v>39052</v>
       </c>
@@ -5780,16 +6251,19 @@
         <v>1</v>
       </c>
       <c r="E157" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="F157" s="69">
         <v>4.7E-2</v>
       </c>
-      <c r="F157" s="78">
+      <c r="G157" s="78">
         <v>227.4</v>
       </c>
-      <c r="G157" s="68">
+      <c r="H157" s="68">
         <v>198535.92893333299</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="70">
         <v>39083</v>
       </c>
@@ -5803,16 +6277,19 @@
         <v>1</v>
       </c>
       <c r="E158" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="F158" s="69">
         <v>4.7E-2</v>
       </c>
-      <c r="F158" s="78">
+      <c r="G158" s="78">
         <v>230.4</v>
       </c>
-      <c r="G158" s="68">
+      <c r="H158" s="68">
         <v>206449.60319999899</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="70">
         <v>39114</v>
       </c>
@@ -5826,16 +6303,19 @@
         <v>1</v>
       </c>
       <c r="E159" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="F159" s="69">
         <v>4.7E-2</v>
       </c>
-      <c r="F159" s="78">
+      <c r="G159" s="78">
         <v>230.8</v>
       </c>
-      <c r="G159" s="68">
+      <c r="H159" s="68">
         <v>208275.36720000001</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="70">
         <v>39142</v>
       </c>
@@ -5849,16 +6329,19 @@
         <v>1</v>
       </c>
       <c r="E160" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="F160" s="69">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="F160" s="78">
+      <c r="G160" s="78">
         <v>236.1</v>
       </c>
-      <c r="G160" s="68">
+      <c r="H160" s="68">
         <v>209614.26079999999</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="70">
         <v>39173</v>
       </c>
@@ -5872,16 +6355,19 @@
         <v>1</v>
       </c>
       <c r="E161" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="F161" s="69">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="F161" s="78">
+      <c r="G161" s="78">
         <v>238</v>
       </c>
-      <c r="G161" s="68">
+      <c r="H161" s="68">
         <v>213752.65919999999</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="70">
         <v>39203</v>
       </c>
@@ -5895,16 +6381,19 @@
         <v>1</v>
       </c>
       <c r="E162" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="F162" s="69">
         <v>4.65E-2</v>
       </c>
-      <c r="F162" s="78">
+      <c r="G162" s="78">
         <v>238.7</v>
       </c>
-      <c r="G162" s="68">
+      <c r="H162" s="68">
         <v>211257.44839999999</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="70">
         <v>39234</v>
       </c>
@@ -5918,16 +6407,19 @@
         <v>1</v>
       </c>
       <c r="E163" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="F163" s="69">
         <v>4.7E-2</v>
       </c>
-      <c r="F163" s="78">
+      <c r="G163" s="78">
         <v>241.1</v>
       </c>
-      <c r="G163" s="68">
+      <c r="H163" s="68">
         <v>202554.64</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="70">
         <v>39264</v>
       </c>
@@ -5941,16 +6433,19 @@
         <v>1</v>
       </c>
       <c r="E164" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="F164" s="69">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F164" s="78">
+      <c r="G164" s="78">
         <v>241.7</v>
       </c>
-      <c r="G164" s="68">
+      <c r="H164" s="68">
         <v>203406.66319999899</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="70">
         <v>39295</v>
       </c>
@@ -5964,16 +6459,19 @@
         <v>1</v>
       </c>
       <c r="E165" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="F165" s="69">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="F165" s="78">
+      <c r="G165" s="78">
         <v>242</v>
       </c>
-      <c r="G165" s="68">
+      <c r="H165" s="68">
         <v>206023.591599999</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="70">
         <v>39326</v>
       </c>
@@ -5987,16 +6485,19 @@
         <v>1</v>
       </c>
       <c r="E166" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="F166" s="69">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="F166" s="78">
+      <c r="G166" s="78">
         <v>244.6</v>
       </c>
-      <c r="G166" s="68">
+      <c r="H166" s="68">
         <v>214726.39999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="70">
         <v>39356</v>
       </c>
@@ -6010,16 +6511,19 @@
         <v>1</v>
       </c>
       <c r="E167" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="F167" s="69">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="F167" s="78">
+      <c r="G167" s="78">
         <v>247</v>
       </c>
-      <c r="G167" s="68">
+      <c r="H167" s="68">
         <v>216187.01119999899</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="70">
         <v>39387</v>
       </c>
@@ -6033,16 +6537,19 @@
         <v>1</v>
       </c>
       <c r="E168" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="F168" s="69">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="F168" s="78">
+      <c r="G168" s="78">
         <v>247.6</v>
       </c>
-      <c r="G168" s="68">
+      <c r="H168" s="68">
         <v>230914.84079999899</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="70">
         <v>39417</v>
       </c>
@@ -6056,16 +6563,19 @@
         <v>1</v>
       </c>
       <c r="E169" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="F169" s="69">
         <v>5.5E-2</v>
       </c>
-      <c r="F169" s="78">
+      <c r="G169" s="78">
         <v>250.3</v>
       </c>
-      <c r="G169" s="68">
+      <c r="H169" s="68">
         <v>220629.70359999899</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="70">
         <v>39448</v>
       </c>
@@ -6079,16 +6589,19 @@
         <v>0.8</v>
       </c>
       <c r="E170" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F170" s="69">
         <v>5.5E-2</v>
       </c>
-      <c r="F170" s="78">
+      <c r="G170" s="78">
         <v>250.9</v>
       </c>
-      <c r="G170" s="68">
+      <c r="H170" s="68">
         <v>220110.92333333299</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="70">
         <v>39479</v>
       </c>
@@ -6102,16 +6615,19 @@
         <v>0.8</v>
       </c>
       <c r="E171" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F171" s="69">
         <v>5.5E-2</v>
       </c>
-      <c r="F171" s="78">
+      <c r="G171" s="78">
         <v>251.4</v>
       </c>
-      <c r="G171" s="68">
+      <c r="H171" s="68">
         <v>226211.80333333299</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="70">
         <v>39508</v>
       </c>
@@ -6125,16 +6641,19 @@
         <v>0.8</v>
       </c>
       <c r="E172" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F172" s="69">
         <v>5.5E-2</v>
       </c>
-      <c r="F172" s="78">
+      <c r="G172" s="78">
         <v>261.89999999999998</v>
       </c>
-      <c r="G172" s="68">
+      <c r="H172" s="68">
         <v>231702.59533333301</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="70">
         <v>39539</v>
       </c>
@@ -6148,16 +6667,19 @@
         <v>0.8</v>
       </c>
       <c r="E173" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F173" s="69">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F173" s="78">
+      <c r="G173" s="78">
         <v>264.10000000000002</v>
       </c>
-      <c r="G173" s="68">
+      <c r="H173" s="68">
         <v>233288.82413333299</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="70">
         <v>39569</v>
       </c>
@@ -6171,16 +6693,19 @@
         <v>0.8</v>
       </c>
       <c r="E174" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F174" s="69">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F174" s="78">
+      <c r="G174" s="78">
         <v>268.39999999999998</v>
       </c>
-      <c r="G174" s="68">
+      <c r="H174" s="68">
         <v>232983.780133333</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="70">
         <v>39600</v>
       </c>
@@ -6194,16 +6719,19 @@
         <v>0.8</v>
       </c>
       <c r="E175" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F175" s="69">
         <v>5.0500000000000003E-2</v>
       </c>
-      <c r="F175" s="78">
+      <c r="G175" s="78">
         <v>280</v>
       </c>
-      <c r="G175" s="68">
+      <c r="H175" s="68">
         <v>223161.36333333299</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="70">
         <v>39630</v>
       </c>
@@ -6217,16 +6745,19 @@
         <v>0.8</v>
       </c>
       <c r="E176" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F176" s="69">
         <v>5.0500000000000003E-2</v>
       </c>
-      <c r="F176" s="78">
+      <c r="G176" s="78">
         <v>288.39999999999998</v>
       </c>
-      <c r="G176" s="68">
+      <c r="H176" s="68">
         <v>219531.33973333301</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="70">
         <v>39661</v>
       </c>
@@ -6240,16 +6771,19 @@
         <v>0.8</v>
       </c>
       <c r="E177" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F177" s="69">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F177" s="78">
+      <c r="G177" s="78">
         <v>291.3</v>
       </c>
-      <c r="G177" s="68">
+      <c r="H177" s="68">
         <v>224137.50413333299</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="70">
         <v>39692</v>
       </c>
@@ -6263,16 +6797,19 @@
         <v>0.8</v>
       </c>
       <c r="E178" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F178" s="69">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F178" s="78">
+      <c r="G178" s="78">
         <v>298.8</v>
       </c>
-      <c r="G178" s="68">
+      <c r="H178" s="68">
         <v>232922.77133333299</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="70">
         <v>39722</v>
       </c>
@@ -6286,16 +6823,19 @@
         <v>0.8</v>
       </c>
       <c r="E179" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F179" s="69">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F179" s="78">
+      <c r="G179" s="78">
         <v>306.2</v>
       </c>
-      <c r="G179" s="68">
+      <c r="H179" s="68">
         <v>232556.71853333301</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="70">
         <v>39753</v>
       </c>
@@ -6309,16 +6849,19 @@
         <v>0.8</v>
       </c>
       <c r="E180" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F180" s="69">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F180" s="78">
+      <c r="G180" s="78">
         <v>308.10000000000002</v>
       </c>
-      <c r="G180" s="68">
+      <c r="H180" s="68">
         <v>245124.531333333</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="70">
         <v>39783</v>
       </c>
@@ -6332,16 +6875,19 @@
         <v>0.8</v>
       </c>
       <c r="E181" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F181" s="69">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F181" s="78">
+      <c r="G181" s="78">
         <v>310.2</v>
       </c>
-      <c r="G181" s="68">
+      <c r="H181" s="68">
         <v>235729.17613333301</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="70">
         <v>39814</v>
       </c>
@@ -6355,16 +6901,19 @@
         <v>0.8</v>
       </c>
       <c r="E182" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F182" s="69">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F182" s="78">
+      <c r="G182" s="78">
         <v>318.5</v>
       </c>
-      <c r="G182" s="68">
+      <c r="H182" s="68">
         <v>232887.1</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="70">
         <v>39845</v>
       </c>
@@ -6378,16 +6927,19 @@
         <v>0.8</v>
       </c>
       <c r="E183" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F183" s="69">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F183" s="78">
+      <c r="G183" s="78">
         <v>321.39999999999998</v>
       </c>
-      <c r="G183" s="68">
+      <c r="H183" s="68">
         <v>227702.94399999999</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="70">
         <v>39873</v>
       </c>
@@ -6401,16 +6953,19 @@
         <v>0.8</v>
       </c>
       <c r="E184" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F184" s="69">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F184" s="78">
+      <c r="G184" s="78">
         <v>324</v>
       </c>
-      <c r="G184" s="68">
+      <c r="H184" s="68">
         <v>227345.416</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="70">
         <v>39904</v>
       </c>
@@ -6424,16 +6979,19 @@
         <v>0.8</v>
       </c>
       <c r="E185" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F185" s="69">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F185" s="78">
+      <c r="G185" s="78">
         <v>328.4</v>
       </c>
-      <c r="G185" s="68">
+      <c r="H185" s="68">
         <v>228715.94</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="70">
         <v>39934</v>
       </c>
@@ -6447,16 +7005,19 @@
         <v>0.8</v>
       </c>
       <c r="E186" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F186" s="69">
         <v>4.7E-2</v>
       </c>
-      <c r="F186" s="78">
+      <c r="G186" s="78">
         <v>326.8</v>
       </c>
-      <c r="G186" s="68">
+      <c r="H186" s="68">
         <v>232291.22</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="70">
         <v>39965</v>
       </c>
@@ -6470,16 +7031,19 @@
         <v>0.8</v>
       </c>
       <c r="E187" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F187" s="69">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="F187" s="78">
+      <c r="G187" s="78">
         <v>323.5</v>
       </c>
-      <c r="G187" s="68">
+      <c r="H187" s="68">
         <v>222161.26</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="70">
         <v>39995</v>
       </c>
@@ -6493,16 +7057,19 @@
         <v>0.8</v>
       </c>
       <c r="E188" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F188" s="69">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="F188" s="78">
+      <c r="G188" s="78">
         <v>326.2</v>
       </c>
-      <c r="G188" s="68">
+      <c r="H188" s="68">
         <v>223353.02</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="70">
         <v>40026</v>
       </c>
@@ -6516,16 +7083,19 @@
         <v>0.8</v>
       </c>
       <c r="E189" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F189" s="69">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="F189" s="78">
+      <c r="G189" s="78">
         <v>329.1</v>
       </c>
-      <c r="G189" s="68">
+      <c r="H189" s="68">
         <v>221803.73199999999</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="70">
         <v>40057</v>
       </c>
@@ -6539,16 +7109,19 @@
         <v>0.8</v>
       </c>
       <c r="E190" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F190" s="69">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="F190" s="78">
+      <c r="G190" s="78">
         <v>325.2</v>
       </c>
-      <c r="G190" s="68">
+      <c r="H190" s="68">
         <v>229371.408</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="70">
         <v>40087</v>
       </c>
@@ -6562,16 +7135,19 @@
         <v>0.8</v>
       </c>
       <c r="E191" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F191" s="69">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="F191" s="78">
+      <c r="G191" s="78">
         <v>326.8</v>
       </c>
-      <c r="G191" s="68">
+      <c r="H191" s="68">
         <v>230026.87599999999</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="70">
         <v>40118</v>
       </c>
@@ -6585,16 +7161,19 @@
         <v>0.8</v>
       </c>
       <c r="E192" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F192" s="69">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="F192" s="78">
+      <c r="G192" s="78">
         <v>328.4</v>
       </c>
-      <c r="G192" s="68">
+      <c r="H192" s="68">
         <v>248558.74399999899</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="70">
         <v>40148</v>
       </c>
@@ -6608,16 +7187,19 @@
         <v>0.8</v>
       </c>
       <c r="E193" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F193" s="69">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="F193" s="78">
+      <c r="G193" s="78">
         <v>327.3</v>
       </c>
-      <c r="G193" s="68">
+      <c r="H193" s="68">
         <v>243434.17600000001</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="70">
         <v>40179</v>
       </c>
@@ -6631,16 +7213,19 @@
         <v>0.8</v>
       </c>
       <c r="E194" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F194" s="69">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="F194" s="78">
+      <c r="G194" s="78">
         <v>330.1</v>
       </c>
-      <c r="G194" s="68">
+      <c r="H194" s="68">
         <v>233193.2648</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="70">
         <v>40210</v>
       </c>
@@ -6654,16 +7239,19 @@
         <v>0.8</v>
       </c>
       <c r="E195" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F195" s="69">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F195" s="78">
+      <c r="G195" s="78">
         <v>331.2</v>
       </c>
-      <c r="G195" s="68">
+      <c r="H195" s="68">
         <v>231716.86</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="70">
         <v>40238</v>
       </c>
@@ -6677,16 +7265,19 @@
         <v>0.8</v>
       </c>
       <c r="E196" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F196" s="69">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F196" s="78">
+      <c r="G196" s="78">
         <v>330.3</v>
       </c>
-      <c r="G196" s="68">
+      <c r="H196" s="68">
         <v>237906.4032</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="70">
         <v>40269</v>
       </c>
@@ -6700,16 +7291,19 @@
         <v>0.8</v>
       </c>
       <c r="E197" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F197" s="69">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F197" s="78">
+      <c r="G197" s="78">
         <v>336.2</v>
       </c>
-      <c r="G197" s="68">
+      <c r="H197" s="68">
         <v>238190.3272</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="70">
         <v>40299</v>
       </c>
@@ -6723,16 +7317,19 @@
         <v>0.8</v>
       </c>
       <c r="E198" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F198" s="69">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F198" s="78">
+      <c r="G198" s="78">
         <v>337.3</v>
       </c>
-      <c r="G198" s="68">
+      <c r="H198" s="68">
         <v>241427.06079999899</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="70">
         <v>40330</v>
       </c>
@@ -6746,16 +7343,19 @@
         <v>0.8</v>
       </c>
       <c r="E199" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F199" s="69">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F199" s="78">
+      <c r="G199" s="78">
         <v>335.5</v>
       </c>
-      <c r="G199" s="68">
+      <c r="H199" s="68">
         <v>236429.99840000001</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="70">
         <v>40360</v>
       </c>
@@ -6769,16 +7369,19 @@
         <v>0.8</v>
       </c>
       <c r="E200" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F200" s="69">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F200" s="78">
+      <c r="G200" s="78">
         <v>337.4</v>
       </c>
-      <c r="G200" s="68">
+      <c r="H200" s="68">
         <v>234385.74559999999</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="70">
         <v>40391</v>
       </c>
@@ -6792,16 +7395,19 @@
         <v>0.8</v>
       </c>
       <c r="E201" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F201" s="69">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F201" s="78">
+      <c r="G201" s="78">
         <v>336.8</v>
       </c>
-      <c r="G201" s="68">
+      <c r="H201" s="68">
         <v>235209.12520000001</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="70">
         <v>40422</v>
       </c>
@@ -6815,16 +7421,19 @@
         <v>0.8</v>
       </c>
       <c r="E202" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F202" s="69">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F202" s="78">
+      <c r="G202" s="78">
         <v>338</v>
       </c>
-      <c r="G202" s="68">
+      <c r="H202" s="68">
         <v>242846.68079999901</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="70">
         <v>40452</v>
       </c>
@@ -6838,16 +7447,19 @@
         <v>0.8</v>
       </c>
       <c r="E203" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F203" s="69">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F203" s="78">
+      <c r="G203" s="78">
         <v>339.5</v>
       </c>
-      <c r="G203" s="68">
+      <c r="H203" s="68">
         <v>243244.17439999999</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="70">
         <v>40483</v>
       </c>
@@ -6861,16 +7473,19 @@
         <v>0.8</v>
       </c>
       <c r="E204" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F204" s="69">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F204" s="78">
+      <c r="G204" s="78">
         <v>339.3</v>
       </c>
-      <c r="G204" s="68">
+      <c r="H204" s="68">
         <v>260052.47519999999</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="70">
         <v>40513</v>
       </c>
@@ -6884,16 +7499,19 @@
         <v>0.8</v>
       </c>
       <c r="E205" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F205" s="69">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F205" s="78">
+      <c r="G205" s="78">
         <v>340.7</v>
       </c>
-      <c r="G205" s="68">
+      <c r="H205" s="68">
         <v>242619.5416</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="70">
         <v>40544</v>
       </c>
@@ -6907,16 +7525,19 @@
         <v>0.8</v>
       </c>
       <c r="E206" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F206" s="69">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F206" s="78">
+      <c r="G206" s="78">
         <v>341</v>
       </c>
-      <c r="G206" s="68">
+      <c r="H206" s="68">
         <v>243789.73919999899</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="70">
         <v>40575</v>
       </c>
@@ -6930,16 +7551,19 @@
         <v>0.8</v>
       </c>
       <c r="E207" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F207" s="69">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F207" s="78">
+      <c r="G207" s="78">
         <v>341.7</v>
       </c>
-      <c r="G207" s="68">
+      <c r="H207" s="68">
         <v>244753.61199999999</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="70">
         <v>40603</v>
       </c>
@@ -6953,16 +7577,19 @@
         <v>0.8</v>
       </c>
       <c r="E208" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F208" s="69">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F208" s="78">
+      <c r="G208" s="78">
         <v>342</v>
       </c>
-      <c r="G208" s="68">
+      <c r="H208" s="68">
         <v>243052.66</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="70">
         <v>40634</v>
       </c>
@@ -6976,16 +7603,19 @@
         <v>0.8</v>
       </c>
       <c r="E209" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F209" s="69">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F209" s="78">
+      <c r="G209" s="78">
         <v>350.1</v>
       </c>
-      <c r="G209" s="68">
+      <c r="H209" s="68">
         <v>246227.77039999899</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="70">
         <v>40664</v>
       </c>
@@ -6999,16 +7629,19 @@
         <v>0.8</v>
       </c>
       <c r="E210" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F210" s="69">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F210" s="78">
+      <c r="G210" s="78">
         <v>352.7</v>
       </c>
-      <c r="G210" s="68">
+      <c r="H210" s="68">
         <v>267376.27360000001</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="70">
         <v>40695</v>
       </c>
@@ -7022,16 +7655,19 @@
         <v>0.8</v>
       </c>
       <c r="E211" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F211" s="69">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F211" s="78">
+      <c r="G211" s="78">
         <v>352.2</v>
       </c>
-      <c r="G211" s="68">
+      <c r="H211" s="68">
         <v>253485.16560000001</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="70">
         <v>40725</v>
       </c>
@@ -7045,16 +7681,19 @@
         <v>0.8</v>
       </c>
       <c r="E212" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F212" s="69">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F212" s="78">
+      <c r="G212" s="78">
         <v>355.8</v>
       </c>
-      <c r="G212" s="68">
+      <c r="H212" s="68">
         <v>245320.59599999999</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="70">
         <v>40756</v>
       </c>
@@ -7068,16 +7707,19 @@
         <v>0.8</v>
       </c>
       <c r="E213" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F213" s="69">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F213" s="78">
+      <c r="G213" s="78">
         <v>357</v>
       </c>
-      <c r="G213" s="68">
+      <c r="H213" s="68">
         <v>248722.5</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="70">
         <v>40787</v>
       </c>
@@ -7091,16 +7733,19 @@
         <v>0.8</v>
       </c>
       <c r="E214" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F214" s="69">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F214" s="78">
+      <c r="G214" s="78">
         <v>357.7</v>
       </c>
-      <c r="G214" s="68">
+      <c r="H214" s="68">
         <v>257170.56159999999</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="70">
         <v>40817</v>
       </c>
@@ -7114,16 +7759,19 @@
         <v>0.8</v>
       </c>
       <c r="E215" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="F215" s="69">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F215" s="78">
+      <c r="G215" s="78">
         <v>358.8</v>
       </c>
-      <c r="G215" s="68">
+      <c r="H215" s="68">
         <v>254392.33999999901</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="70">
         <v>40848</v>
       </c>
@@ -7137,16 +7785,19 @@
         <v>0.85</v>
       </c>
       <c r="E216" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F216" s="69">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F216" s="78">
+      <c r="G216" s="78">
         <v>360.2</v>
       </c>
-      <c r="G216" s="68">
+      <c r="H216" s="68">
         <v>273272.90720000002</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="70">
         <v>40878</v>
       </c>
@@ -7160,16 +7811,19 @@
         <v>0.85</v>
       </c>
       <c r="E217" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F217" s="69">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F217" s="78">
+      <c r="G217" s="78">
         <v>361.5</v>
       </c>
-      <c r="G217" s="68">
+      <c r="H217" s="68">
         <v>260288.9736</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="70">
         <v>40909</v>
       </c>
@@ -7183,16 +7837,19 @@
         <v>0.85</v>
       </c>
       <c r="E218" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F218" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F218" s="78">
+      <c r="G218" s="78">
         <v>361.9</v>
       </c>
-      <c r="G218" s="68">
+      <c r="H218" s="68">
         <v>259989.45373333301</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="70">
         <v>40940</v>
       </c>
@@ -7206,16 +7863,19 @@
         <v>0.85</v>
       </c>
       <c r="E219" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F219" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F219" s="78">
+      <c r="G219" s="78">
         <v>362.6</v>
       </c>
-      <c r="G219" s="68">
+      <c r="H219" s="68">
         <v>268149.87613333302</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="70">
         <v>40969</v>
       </c>
@@ -7229,16 +7889,19 @@
         <v>0.85</v>
       </c>
       <c r="E220" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F220" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F220" s="78">
+      <c r="G220" s="78">
         <v>366.1</v>
       </c>
-      <c r="G220" s="68">
+      <c r="H220" s="68">
         <v>268943.25053333299</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="70">
         <v>41000</v>
       </c>
@@ -7252,16 +7915,19 @@
         <v>0.85</v>
       </c>
       <c r="E221" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F221" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F221" s="78">
+      <c r="G221" s="78">
         <v>370.1</v>
       </c>
-      <c r="G221" s="68">
+      <c r="H221" s="68">
         <v>271776.73053333297</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="70">
         <v>41030</v>
       </c>
@@ -7275,16 +7941,19 @@
         <v>0.85</v>
       </c>
       <c r="E222" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F222" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F222" s="78">
+      <c r="G222" s="78">
         <v>372.4</v>
       </c>
-      <c r="G222" s="68">
+      <c r="H222" s="68">
         <v>276706.98573333299</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="70">
         <v>41061</v>
       </c>
@@ -7298,16 +7967,19 @@
         <v>0.85</v>
       </c>
       <c r="E223" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F223" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F223" s="78">
+      <c r="G223" s="78">
         <v>372.4</v>
       </c>
-      <c r="G223" s="68">
+      <c r="H223" s="68">
         <v>260046.123333333</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="70">
         <v>41091</v>
       </c>
@@ -7321,16 +7993,19 @@
         <v>0.85</v>
       </c>
       <c r="E224" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F224" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F224" s="78">
+      <c r="G224" s="78">
         <v>374.4</v>
       </c>
-      <c r="G224" s="68">
+      <c r="H224" s="68">
         <v>258516.04413333299</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="70">
         <v>41122</v>
       </c>
@@ -7344,16 +8019,19 @@
         <v>0.85</v>
       </c>
       <c r="E225" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F225" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F225" s="78">
+      <c r="G225" s="78">
         <v>375.3</v>
       </c>
-      <c r="G225" s="68">
+      <c r="H225" s="68">
         <v>263361.294933333</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="70">
         <v>41153</v>
       </c>
@@ -7367,16 +8045,19 @@
         <v>0.85</v>
       </c>
       <c r="E226" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F226" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F226" s="78">
+      <c r="G226" s="78">
         <v>377.7</v>
       </c>
-      <c r="G226" s="68">
+      <c r="H226" s="68">
         <v>270983.356133333</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="70">
         <v>41183</v>
       </c>
@@ -7390,16 +8071,19 @@
         <v>0.85</v>
       </c>
       <c r="E227" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F227" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F227" s="78">
+      <c r="G227" s="78">
         <v>379.4</v>
       </c>
-      <c r="G227" s="68">
+      <c r="H227" s="68">
         <v>272910.12253333302</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="70">
         <v>41214</v>
       </c>
@@ -7413,16 +8097,19 @@
         <v>0.85</v>
       </c>
       <c r="E228" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F228" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F228" s="78">
+      <c r="G228" s="78">
         <v>380.9</v>
       </c>
-      <c r="G228" s="68">
+      <c r="H228" s="68">
         <v>291781.09933333303</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="70">
         <v>41244</v>
       </c>
@@ -7436,16 +8123,19 @@
         <v>0.85</v>
       </c>
       <c r="E229" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F229" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F229" s="78">
+      <c r="G229" s="78">
         <v>382.1</v>
       </c>
-      <c r="G229" s="68">
+      <c r="H229" s="68">
         <v>270246.65133333299</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="70">
         <v>41275</v>
       </c>
@@ -7459,16 +8149,19 @@
         <v>0.85</v>
       </c>
       <c r="E230" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F230" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F230" s="78">
+      <c r="G230" s="78">
         <v>386.9</v>
       </c>
-      <c r="G230" s="68">
+      <c r="H230" s="68">
         <v>275978.86743333301</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="70">
         <v>41306</v>
       </c>
@@ -7482,16 +8175,19 @@
         <v>0.85</v>
       </c>
       <c r="E231" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F231" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F231" s="78">
+      <c r="G231" s="78">
         <v>387</v>
       </c>
-      <c r="G231" s="68">
+      <c r="H231" s="68">
         <v>286267.88463333301</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="70">
         <v>41334</v>
       </c>
@@ -7505,16 +8201,19 @@
         <v>0.85</v>
       </c>
       <c r="E232" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F232" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F232" s="78">
+      <c r="G232" s="78">
         <v>390.5</v>
       </c>
-      <c r="G232" s="68">
+      <c r="H232" s="68">
         <v>287118.21663333301</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="70">
         <v>41365</v>
       </c>
@@ -7528,16 +8227,19 @@
         <v>0.85</v>
       </c>
       <c r="E233" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F233" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F233" s="78">
+      <c r="G233" s="78">
         <v>397</v>
       </c>
-      <c r="G233" s="68">
+      <c r="H233" s="68">
         <v>288422.05903333297</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="70">
         <v>41395</v>
       </c>
@@ -7551,16 +8253,19 @@
         <v>0.85</v>
       </c>
       <c r="E234" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F234" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F234" s="78">
+      <c r="G234" s="78">
         <v>397.4</v>
       </c>
-      <c r="G234" s="68">
+      <c r="H234" s="68">
         <v>290916.36623333301</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="70">
         <v>41426</v>
       </c>
@@ -7574,16 +8279,19 @@
         <v>0.85</v>
       </c>
       <c r="E235" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F235" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F235" s="78">
+      <c r="G235" s="78">
         <v>398.5</v>
       </c>
-      <c r="G235" s="68">
+      <c r="H235" s="68">
         <v>277481.12063333299</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="70">
         <v>41456</v>
       </c>
@@ -7597,16 +8305,19 @@
         <v>0.85</v>
       </c>
       <c r="E236" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F236" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F236" s="78">
+      <c r="G236" s="78">
         <v>399.5</v>
       </c>
-      <c r="G236" s="68">
+      <c r="H236" s="68">
         <v>273512.90463333298</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="70">
         <v>41487</v>
       </c>
@@ -7620,16 +8331,19 @@
         <v>0.85</v>
       </c>
       <c r="E237" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F237" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F237" s="78">
+      <c r="G237" s="78">
         <v>400.6</v>
       </c>
-      <c r="G237" s="68">
+      <c r="H237" s="68">
         <v>277537.80943333299</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="70">
         <v>41518</v>
       </c>
@@ -7643,16 +8357,19 @@
         <v>0.85</v>
       </c>
       <c r="E238" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F238" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F238" s="78">
+      <c r="G238" s="78">
         <v>404.2</v>
       </c>
-      <c r="G238" s="68">
+      <c r="H238" s="68">
         <v>287911.859833333</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="70">
         <v>41548</v>
       </c>
@@ -7666,16 +8383,19 @@
         <v>0.85</v>
       </c>
       <c r="E239" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F239" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F239" s="78">
+      <c r="G239" s="78">
         <v>413.1</v>
       </c>
-      <c r="G239" s="68">
+      <c r="H239" s="68">
         <v>287855.171033333</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="70">
         <v>41579</v>
       </c>
@@ -7689,16 +8409,19 @@
         <v>0.85</v>
       </c>
       <c r="E240" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F240" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F240" s="78">
+      <c r="G240" s="78">
         <v>413.8</v>
       </c>
-      <c r="G240" s="68">
+      <c r="H240" s="68">
         <v>308716.64943333302</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="70">
         <v>41609</v>
       </c>
@@ -7712,16 +8435,19 @@
         <v>0.85</v>
       </c>
       <c r="E241" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F241" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F241" s="78">
+      <c r="G241" s="78">
         <v>417</v>
       </c>
-      <c r="G241" s="68">
+      <c r="H241" s="68">
         <v>289555.83503333299</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="70">
         <v>41640</v>
       </c>
@@ -7735,16 +8461,19 @@
         <v>0.85</v>
       </c>
       <c r="E242" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F242" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F242" s="78">
+      <c r="G242" s="78">
         <v>417.3</v>
       </c>
-      <c r="G242" s="68">
+      <c r="H242" s="68">
         <v>298230.9656</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="70">
         <v>41671</v>
       </c>
@@ -7758,16 +8487,19 @@
         <v>0.85</v>
       </c>
       <c r="E243" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F243" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F243" s="78">
+      <c r="G243" s="78">
         <v>420</v>
       </c>
-      <c r="G243" s="68">
+      <c r="H243" s="68">
         <v>299831.1544</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="70">
         <v>41699</v>
       </c>
@@ -7781,16 +8513,19 @@
         <v>0.85</v>
       </c>
       <c r="E244" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F244" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F244" s="78">
+      <c r="G244" s="78">
         <v>420.6</v>
       </c>
-      <c r="G244" s="68">
+      <c r="H244" s="68">
         <v>300231.20159999997</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="70">
         <v>41730</v>
       </c>
@@ -7804,16 +8539,19 @@
         <v>0.85</v>
       </c>
       <c r="E245" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F245" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F245" s="78">
+      <c r="G245" s="78">
         <v>423.7</v>
       </c>
-      <c r="G245" s="68">
+      <c r="H245" s="68">
         <v>302517.18560000003</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="70">
         <v>41760</v>
       </c>
@@ -7827,16 +8565,19 @@
         <v>0.85</v>
       </c>
       <c r="E246" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F246" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F246" s="78">
+      <c r="G246" s="78">
         <v>424.2</v>
       </c>
-      <c r="G246" s="68">
+      <c r="H246" s="68">
         <v>313089.8616</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="70">
         <v>41791</v>
       </c>
@@ -7850,16 +8591,19 @@
         <v>0.85</v>
       </c>
       <c r="E247" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F247" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F247" s="78">
+      <c r="G247" s="78">
         <v>425.8</v>
       </c>
-      <c r="G247" s="68">
+      <c r="H247" s="68">
         <v>292516.00559999997</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="70">
         <v>41821</v>
       </c>
@@ -7873,16 +8617,19 @@
         <v>0.85</v>
       </c>
       <c r="E248" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F248" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F248" s="78">
+      <c r="G248" s="78">
         <v>427.3</v>
       </c>
-      <c r="G248" s="68">
+      <c r="H248" s="68">
         <v>289029.88</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="70">
         <v>41852</v>
       </c>
@@ -7896,16 +8643,19 @@
         <v>0.85</v>
       </c>
       <c r="E249" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F249" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F249" s="78">
+      <c r="G249" s="78">
         <v>428.1</v>
       </c>
-      <c r="G249" s="68">
+      <c r="H249" s="68">
         <v>292458.85600000003</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="70">
         <v>41883</v>
       </c>
@@ -7919,16 +8669,19 @@
         <v>0.85</v>
       </c>
       <c r="E250" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F250" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F250" s="78">
+      <c r="G250" s="78">
         <v>429.3</v>
       </c>
-      <c r="G250" s="68">
+      <c r="H250" s="68">
         <v>303145.83120000002</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="70">
         <v>41913</v>
       </c>
@@ -7942,16 +8695,19 @@
         <v>0.85</v>
       </c>
       <c r="E251" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F251" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F251" s="78">
+      <c r="G251" s="78">
         <v>431.1</v>
       </c>
-      <c r="G251" s="68">
+      <c r="H251" s="68">
         <v>302231.4376</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="70">
         <v>41944</v>
       </c>
@@ -7965,16 +8721,19 @@
         <v>0.85</v>
       </c>
       <c r="E252" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F252" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F252" s="78">
+      <c r="G252" s="78">
         <v>430.9</v>
       </c>
-      <c r="G252" s="68">
+      <c r="H252" s="68">
         <v>328463.10399999999</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="70">
         <v>41974</v>
       </c>
@@ -7988,16 +8747,19 @@
         <v>0.85</v>
       </c>
       <c r="E253" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F253" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F253" s="78">
+      <c r="G253" s="78">
         <v>434.7</v>
       </c>
-      <c r="G253" s="68">
+      <c r="H253" s="68">
         <v>308060.69679999998</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="70">
         <v>42005</v>
       </c>
@@ -8011,16 +8773,19 @@
         <v>0.85</v>
       </c>
       <c r="E254" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F254" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F254" s="78">
+      <c r="G254" s="78">
         <v>434.3</v>
       </c>
-      <c r="G254" s="68">
+      <c r="H254" s="68">
         <v>305232.22399999999</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="70">
         <v>42036</v>
       </c>
@@ -8034,16 +8799,19 @@
         <v>0.85</v>
       </c>
       <c r="E255" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F255" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F255" s="78">
+      <c r="G255" s="78">
         <v>435.4</v>
       </c>
-      <c r="G255" s="68">
+      <c r="H255" s="68">
         <v>306032.31839999999</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="70">
         <v>42064</v>
       </c>
@@ -8057,16 +8825,19 @@
         <v>0.85</v>
       </c>
       <c r="E256" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F256" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F256" s="78">
+      <c r="G256" s="78">
         <v>437</v>
       </c>
-      <c r="G256" s="68">
+      <c r="H256" s="68">
         <v>307146.73559999902</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="70">
         <v>42095</v>
       </c>
@@ -8080,16 +8851,19 @@
         <v>0.85</v>
       </c>
       <c r="E257" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F257" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F257" s="78">
+      <c r="G257" s="78">
         <v>439.7</v>
       </c>
-      <c r="G257" s="68">
+      <c r="H257" s="68">
         <v>309861.34159999999</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="70">
         <v>42125</v>
       </c>
@@ -8103,16 +8877,19 @@
         <v>0.85</v>
       </c>
       <c r="E258" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F258" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F258" s="78">
+      <c r="G258" s="78">
         <v>442</v>
       </c>
-      <c r="G258" s="68">
+      <c r="H258" s="68">
         <v>324091.592</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="70">
         <v>42156</v>
       </c>
@@ -8126,16 +8903,19 @@
         <v>0.85</v>
       </c>
       <c r="E259" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F259" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F259" s="78">
+      <c r="G259" s="78">
         <v>440.9</v>
       </c>
-      <c r="G259" s="68">
+      <c r="H259" s="68">
         <v>320033.97039999999</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="70">
         <v>42186</v>
       </c>
@@ -8149,16 +8929,19 @@
         <v>0.85</v>
       </c>
       <c r="E260" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F260" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F260" s="78">
+      <c r="G260" s="78">
         <v>442.7</v>
       </c>
-      <c r="G260" s="68">
+      <c r="H260" s="68">
         <v>310832.8848</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="70">
         <v>42217</v>
       </c>
@@ -8172,16 +8955,19 @@
         <v>0.85</v>
       </c>
       <c r="E261" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F261" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F261" s="78">
+      <c r="G261" s="78">
         <v>443.9</v>
       </c>
-      <c r="G261" s="68">
+      <c r="H261" s="68">
         <v>313033.14439999999</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="70">
         <v>42248</v>
       </c>
@@ -8195,16 +8981,19 @@
         <v>0.85</v>
       </c>
       <c r="E262" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F262" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F262" s="78">
+      <c r="G262" s="78">
         <v>447</v>
       </c>
-      <c r="G262" s="68">
+      <c r="H262" s="68">
         <v>323177.19839999999</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="70">
         <v>42278</v>
       </c>
@@ -8218,16 +9007,19 @@
         <v>0.85</v>
       </c>
       <c r="E263" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F263" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F263" s="78">
+      <c r="G263" s="78">
         <v>449.8</v>
       </c>
-      <c r="G263" s="68">
+      <c r="H263" s="68">
         <v>322720.00160000002</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="70">
         <v>42309</v>
       </c>
@@ -8241,16 +9033,19 @@
         <v>0.85</v>
       </c>
       <c r="E264" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F264" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F264" s="78">
+      <c r="G264" s="78">
         <v>448.1</v>
       </c>
-      <c r="G264" s="68">
+      <c r="H264" s="68">
         <v>351751.99839999998</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="70">
         <v>42339</v>
       </c>
@@ -8264,16 +9059,19 @@
         <v>0.85</v>
       </c>
       <c r="E265" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F265" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F265" s="78">
+      <c r="G265" s="78">
         <v>452.3</v>
       </c>
-      <c r="G265" s="68">
+      <c r="H265" s="68">
         <v>329749.40240000002</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="70">
         <v>42370</v>
       </c>
@@ -8287,16 +9085,19 @@
         <v>0.85</v>
       </c>
       <c r="E266" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F266" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F266" s="78">
+      <c r="G266" s="78">
         <v>451.8</v>
       </c>
-      <c r="G266" s="68">
+      <c r="H266" s="68">
         <v>335807.08299999998</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="70">
         <v>42401</v>
       </c>
@@ -8310,16 +9111,19 @@
         <v>0.85</v>
       </c>
       <c r="E267" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F267" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F267" s="78">
+      <c r="G267" s="78">
         <v>454.3</v>
       </c>
-      <c r="G267" s="68">
+      <c r="H267" s="68">
         <v>352124.11900000001</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="70">
         <v>42430</v>
       </c>
@@ -8333,16 +9137,19 @@
         <v>0.85</v>
       </c>
       <c r="E268" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F268" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F268" s="78">
+      <c r="G268" s="78">
         <v>456.4</v>
       </c>
-      <c r="G268" s="68">
+      <c r="H268" s="68">
         <v>349258.40299999999</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="70">
         <v>42461</v>
       </c>
@@ -8356,16 +9163,19 @@
         <v>0.85</v>
       </c>
       <c r="E269" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F269" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F269" s="78">
+      <c r="G269" s="78">
         <v>459</v>
       </c>
-      <c r="G269" s="68">
+      <c r="H269" s="68">
         <v>348439.62699999998</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="70">
         <v>42491</v>
       </c>
@@ -8379,16 +9189,19 @@
         <v>0.85</v>
       </c>
       <c r="E270" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F270" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F270" s="78">
+      <c r="G270" s="78">
         <v>460.2</v>
       </c>
-      <c r="G270" s="68">
+      <c r="H270" s="68">
         <v>359960.97499999998</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="70">
         <v>42522</v>
       </c>
@@ -8402,16 +9215,19 @@
         <v>0.85</v>
       </c>
       <c r="E271" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F271" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F271" s="78">
+      <c r="G271" s="78">
         <v>459.4</v>
       </c>
-      <c r="G271" s="68">
+      <c r="H271" s="68">
         <v>335748.59899999999</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="70">
         <v>42552</v>
       </c>
@@ -8425,16 +9241,19 @@
         <v>0.85</v>
       </c>
       <c r="E272" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F272" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F272" s="78">
+      <c r="G272" s="78">
         <v>461</v>
       </c>
-      <c r="G272" s="68">
+      <c r="H272" s="68">
         <v>332005.62300000002</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="70">
         <v>42583</v>
       </c>
@@ -8448,16 +9267,19 @@
         <v>0.85</v>
       </c>
       <c r="E273" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F273" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F273" s="78">
+      <c r="G273" s="78">
         <v>462.8</v>
       </c>
-      <c r="G273" s="68">
+      <c r="H273" s="68">
         <v>336742.82699999999</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="70">
         <v>42614</v>
       </c>
@@ -8471,16 +9293,19 @@
         <v>0.85</v>
       </c>
       <c r="E274" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F274" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F274" s="78">
+      <c r="G274" s="78">
         <v>466.7</v>
       </c>
-      <c r="G274" s="68">
+      <c r="H274" s="68">
         <v>348439.62699999998</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="70">
         <v>42644</v>
       </c>
@@ -8494,16 +9319,19 @@
         <v>0.85</v>
       </c>
       <c r="E275" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F275" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F275" s="78">
+      <c r="G275" s="78">
         <v>466.9</v>
       </c>
-      <c r="G275" s="68">
+      <c r="H275" s="68">
         <v>348439.62699999998</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="70">
         <v>42675</v>
       </c>
@@ -8517,16 +9345,19 @@
         <v>0.85</v>
       </c>
       <c r="E276" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F276" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F276" s="78">
+      <c r="G276" s="78">
         <v>471.3</v>
       </c>
-      <c r="G276" s="68">
+      <c r="H276" s="68">
         <v>378675.85499999998</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="70">
         <v>42705</v>
       </c>
@@ -8540,16 +9371,19 @@
         <v>0.85</v>
       </c>
       <c r="E277" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F277" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F277" s="78">
+      <c r="G277" s="78">
         <v>473.1</v>
       </c>
-      <c r="G277" s="68">
+      <c r="H277" s="68">
         <v>350135.663</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="70">
         <v>42736</v>
       </c>
@@ -8563,16 +9397,19 @@
         <v>0.85</v>
       </c>
       <c r="E278" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F278" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F278" s="78">
+      <c r="G278" s="78">
         <v>475.3</v>
       </c>
-      <c r="G278" s="68">
+      <c r="H278" s="68">
         <v>352095</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="70">
         <v>42767</v>
       </c>
@@ -8586,16 +9423,19 @@
         <v>0.85</v>
       </c>
       <c r="E279" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F279" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F279" s="78">
+      <c r="G279" s="78">
         <v>475.7</v>
       </c>
-      <c r="G279" s="68">
+      <c r="H279" s="68">
         <v>352095</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="70">
         <v>42795</v>
       </c>
@@ -8609,16 +9449,19 @@
         <v>0.85</v>
       </c>
       <c r="E280" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F280" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F280" s="78">
+      <c r="G280" s="78">
         <v>474.2</v>
       </c>
-      <c r="G280" s="68">
+      <c r="H280" s="68">
         <v>352753.21359999903</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="70">
         <v>42826</v>
       </c>
@@ -8632,16 +9475,19 @@
         <v>0.85</v>
       </c>
       <c r="E281" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F281" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F281" s="78">
+      <c r="G281" s="78">
         <v>476.4</v>
       </c>
-      <c r="G281" s="68">
+      <c r="H281" s="68">
         <v>358318.11040000001</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="70">
         <v>42856</v>
       </c>
@@ -8655,16 +9501,19 @@
         <v>0.85</v>
       </c>
       <c r="E282" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F282" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F282" s="78">
+      <c r="G282" s="78">
         <v>476.6</v>
       </c>
-      <c r="G282" s="68">
+      <c r="H282" s="68">
         <v>382612.17599999998</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="70">
         <v>42887</v>
       </c>
@@ -8678,16 +9527,19 @@
         <v>0.85</v>
       </c>
       <c r="E283" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F283" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F283" s="78">
+      <c r="G283" s="78">
         <v>478.5</v>
       </c>
-      <c r="G283" s="68">
+      <c r="H283" s="68">
         <v>358437.7856</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="70">
         <v>42917</v>
       </c>
@@ -8701,16 +9553,19 @@
         <v>0.85</v>
       </c>
       <c r="E284" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F284" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F284" s="78">
+      <c r="G284" s="78">
         <v>480.2</v>
       </c>
-      <c r="G284" s="68">
+      <c r="H284" s="68">
         <v>353052.40159999998</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="70">
         <v>42948</v>
       </c>
@@ -8724,16 +9579,19 @@
         <v>0.85</v>
       </c>
       <c r="E285" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F285" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F285" s="78">
+      <c r="G285" s="78">
         <v>480.4</v>
       </c>
-      <c r="G285" s="68">
+      <c r="H285" s="68">
         <v>359754.21279999998</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="70">
         <v>42979</v>
       </c>
@@ -8747,16 +9605,19 @@
         <v>0.85</v>
       </c>
       <c r="E286" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F286" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F286" s="78">
+      <c r="G286" s="78">
         <v>482.2</v>
       </c>
-      <c r="G286" s="68">
+      <c r="H286" s="68">
         <v>371452.46359999903</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="70">
         <v>43009</v>
       </c>
@@ -8770,16 +9631,19 @@
         <v>0.85</v>
       </c>
       <c r="E287" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F287" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F287" s="78">
+      <c r="G287" s="78">
         <v>483.4</v>
       </c>
-      <c r="G287" s="68">
+      <c r="H287" s="68">
         <v>372619.29680000001</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="70">
         <v>43040</v>
       </c>
@@ -8793,16 +9657,19 @@
         <v>0.85</v>
       </c>
       <c r="E288" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F288" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F288" s="78">
+      <c r="G288" s="78">
         <v>483.9</v>
       </c>
-      <c r="G288" s="68">
+      <c r="H288" s="68">
         <v>403555.33600000001</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="70">
         <v>43070</v>
       </c>
@@ -8816,16 +9683,19 @@
         <v>0.85</v>
       </c>
       <c r="E289" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F289" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F289" s="78">
+      <c r="G289" s="78">
         <v>488.8</v>
       </c>
-      <c r="G289" s="68">
+      <c r="H289" s="68">
         <v>376867.76640000002</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="70">
         <v>43101</v>
       </c>
@@ -8839,16 +9709,19 @@
         <v>0.85</v>
       </c>
       <c r="E290" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F290" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F290" s="78">
+      <c r="G290" s="78">
         <v>493.1</v>
       </c>
-      <c r="G290" s="68">
+      <c r="H290" s="68">
         <v>373786.80959999998</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="70">
         <v>43132</v>
       </c>
@@ -8862,16 +9735,19 @@
         <v>0.85</v>
       </c>
       <c r="E291" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F291" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F291" s="78">
+      <c r="G291" s="78">
         <v>494.4</v>
       </c>
-      <c r="G291" s="68">
+      <c r="H291" s="68">
         <v>373008.92080000002</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="70">
         <v>43160</v>
       </c>
@@ -8885,16 +9761,19 @@
         <v>0.85</v>
       </c>
       <c r="E292" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F292" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F292" s="78">
+      <c r="G292" s="78">
         <v>495.6</v>
       </c>
-      <c r="G292" s="68">
+      <c r="H292" s="68">
         <v>371273.63039999898</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="70">
         <v>43191</v>
       </c>
@@ -8908,16 +9787,19 @@
         <v>0.85</v>
       </c>
       <c r="E293" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F293" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F293" s="78">
+      <c r="G293" s="78">
         <v>497.6</v>
       </c>
-      <c r="G293" s="68">
+      <c r="H293" s="68">
         <v>379052.5184</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="70">
         <v>43221</v>
       </c>
@@ -8931,16 +9813,19 @@
         <v>0.85</v>
       </c>
       <c r="E294" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F294" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F294" s="78">
+      <c r="G294" s="78">
         <v>499.4</v>
       </c>
-      <c r="G294" s="68">
+      <c r="H294" s="68">
         <v>398739.08880000003</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="70">
         <v>43252</v>
       </c>
@@ -8954,16 +9839,19 @@
         <v>0.85</v>
       </c>
       <c r="E295" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F295" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F295" s="78">
+      <c r="G295" s="78">
         <v>502.2</v>
       </c>
-      <c r="G295" s="68">
+      <c r="H295" s="68">
         <v>374385.18560000003</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="70">
         <v>43282</v>
       </c>
@@ -8977,16 +9865,19 @@
         <v>0.85</v>
       </c>
       <c r="E296" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F296" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F296" s="78">
+      <c r="G296" s="78">
         <v>503.8</v>
       </c>
-      <c r="G296" s="68">
+      <c r="H296" s="68">
         <v>370076.87839999999</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="70">
         <v>43313</v>
       </c>
@@ -9000,16 +9891,19 @@
         <v>0.85</v>
       </c>
       <c r="E297" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F297" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F297" s="78">
+      <c r="G297" s="78">
         <v>505.6</v>
       </c>
-      <c r="G297" s="68">
+      <c r="H297" s="68">
         <v>374684.37359999999</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="70">
         <v>43344</v>
       </c>
@@ -9023,16 +9917,19 @@
         <v>0.85</v>
       </c>
       <c r="E298" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F298" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F298" s="78">
+      <c r="G298" s="78">
         <v>510.6</v>
       </c>
-      <c r="G298" s="68">
+      <c r="H298" s="68">
         <v>383001.8</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="70">
         <v>43374</v>
       </c>
@@ -9046,16 +9943,19 @@
         <v>0.85</v>
       </c>
       <c r="E299" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F299" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F299" s="78">
+      <c r="G299" s="78">
         <v>513.1</v>
       </c>
-      <c r="G299" s="68">
+      <c r="H299" s="68">
         <v>383061.63759999903</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="70">
         <v>43405</v>
       </c>
@@ -9069,16 +9969,19 @@
         <v>0.85</v>
       </c>
       <c r="E300" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F300" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F300" s="78">
+      <c r="G300" s="78">
         <v>516.6</v>
       </c>
-      <c r="G300" s="68">
+      <c r="H300" s="68">
         <v>415553.45439999999</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="70">
         <v>43435</v>
       </c>
@@ -9092,16 +9995,19 @@
         <v>0.85</v>
       </c>
       <c r="E301" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F301" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F301" s="78">
+      <c r="G301" s="78">
         <v>518.79999999999995</v>
       </c>
-      <c r="G301" s="68">
+      <c r="H301" s="68">
         <v>389165.07280000002</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="70">
         <v>43466</v>
       </c>
@@ -9115,16 +10021,19 @@
         <v>0.85</v>
       </c>
       <c r="E302" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F302" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F302" s="78">
+      <c r="G302" s="78">
         <v>521.20000000000005</v>
       </c>
-      <c r="G302" s="68">
+      <c r="H302" s="68">
         <v>385553.8</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="70">
         <v>43497</v>
       </c>
@@ -9138,16 +10047,19 @@
         <v>0.85</v>
       </c>
       <c r="E303" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F303" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F303" s="78">
+      <c r="G303" s="78">
         <v>523.6</v>
       </c>
-      <c r="G303" s="68">
+      <c r="H303" s="68">
         <v>385553.8</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="70">
         <v>43525</v>
       </c>
@@ -9161,16 +10073,19 @@
         <v>0.85</v>
       </c>
       <c r="E304" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F304" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F304" s="78">
+      <c r="G304" s="78">
         <v>527</v>
       </c>
-      <c r="G304" s="68">
+      <c r="H304" s="68">
         <v>385553.8</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="70">
         <v>43556</v>
       </c>
@@ -9184,16 +10099,19 @@
         <v>0.85</v>
       </c>
       <c r="E305" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F305" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F305" s="78">
+      <c r="G305" s="78">
         <v>528.5</v>
       </c>
-      <c r="G305" s="68">
+      <c r="H305" s="68">
         <v>423251.48800000001</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="70">
         <v>43586</v>
       </c>
@@ -9207,16 +10125,19 @@
         <v>0.85</v>
       </c>
       <c r="E306" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F306" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F306" s="78">
+      <c r="G306" s="78">
         <v>531.29999999999995</v>
       </c>
-      <c r="G306" s="68">
+      <c r="H306" s="68">
         <v>395965.54239999998</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="70">
         <v>43617</v>
       </c>
@@ -9230,16 +10151,19 @@
         <v>0.85</v>
       </c>
       <c r="E307" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F307" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F307" s="78">
+      <c r="G307" s="78">
         <v>534.1</v>
       </c>
-      <c r="G307" s="68">
+      <c r="H307" s="68">
         <v>391537.56</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="70">
         <v>43647</v>
       </c>
@@ -9253,22 +10177,25 @@
         <v>0.85</v>
       </c>
       <c r="E308" s="69">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F308" s="69">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F308" s="78">
+      <c r="G308" s="78">
         <v>536.9</v>
       </c>
-      <c r="G308" s="68">
+      <c r="H308" s="68">
         <v>378373.288</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="70"/>
       <c r="B309" s="71"/>
       <c r="C309" s="72"/>
-      <c r="F309" s="78"/>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G309" s="78"/>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="70"/>
       <c r="B310" s="71"/>
     </row>
